--- a/data/outputs/full_results/summary_results_all_wm.xlsx
+++ b/data/outputs/full_results/summary_results_all_wm.xlsx
@@ -2505,13 +2505,13 @@
         </is>
       </c>
       <c r="B14">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="C14">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>93.75</v>
+        <v>95</v>
       </c>
       <c r="E14">
         <v>95</v>
@@ -2523,16 +2523,16 @@
         <v>97</v>
       </c>
       <c r="H14">
-        <v>88</v>
+        <v>91.92788461538461</v>
       </c>
       <c r="I14">
-        <v>14.17453924203585</v>
+        <v>10.34009088748746</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2544,52 +2544,52 @@
         <v>3</v>
       </c>
       <c r="O14">
-        <v>1.007142857142857</v>
+        <v>1.245192307692308</v>
       </c>
       <c r="P14">
-        <v>0.775950600462039</v>
+        <v>0.7036660120816551</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>7</v>
+        <v>12.75</v>
       </c>
       <c r="S14">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T14">
-        <v>28</v>
+        <v>30.25</v>
       </c>
       <c r="U14">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="V14">
-        <v>18.09642857142857</v>
+        <v>21.82692307692308</v>
       </c>
       <c r="W14">
-        <v>13.83937508023275</v>
+        <v>11.73494908810151</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="Z14">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AA14">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AB14">
         <v>79</v>
       </c>
       <c r="AC14">
-        <v>24.97857142857143</v>
+        <v>31.19711538461538</v>
       </c>
       <c r="AD14">
-        <v>17.62125136714143</v>
+        <v>15.03762082072742</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -2607,52 +2607,52 @@
         <v>5</v>
       </c>
       <c r="AJ14">
-        <v>1.625</v>
+        <v>1.990384615384615</v>
       </c>
       <c r="AK14">
-        <v>1.125821086265296</v>
+        <v>0.9680419233514812</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AN14">
         <v>0.5</v>
       </c>
       <c r="AO14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="AP14">
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>0.4803571428571429</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="AR14">
-        <v>0.3718904949732716</v>
+        <v>0.3312520182323</v>
       </c>
       <c r="AS14">
         <v>24.25</v>
       </c>
       <c r="AT14">
-        <v>32.33333333333334</v>
+        <v>31.66666666666667</v>
       </c>
       <c r="AU14">
         <v>47.5</v>
       </c>
       <c r="AV14">
-        <v>53.25</v>
+        <v>47.5</v>
       </c>
       <c r="AW14">
         <v>97</v>
       </c>
       <c r="AX14">
-        <v>50.48422619047619</v>
+        <v>45.63501602564103</v>
       </c>
       <c r="AY14">
-        <v>20.61342899651713</v>
+        <v>17.34241118039616</v>
       </c>
     </row>
     <row r="15">
@@ -2710,49 +2710,49 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>10.75</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T15">
-        <v>51</v>
+        <v>49.25</v>
       </c>
       <c r="U15">
         <v>91</v>
       </c>
       <c r="V15">
-        <v>32.69285714285714</v>
+        <v>30.06785714285714</v>
       </c>
       <c r="W15">
-        <v>23.76524869575146</v>
+        <v>24.91675824158996</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>59.5</v>
+        <v>56</v>
       </c>
       <c r="AA15">
-        <v>75</v>
+        <v>74.25</v>
       </c>
       <c r="AB15">
         <v>97</v>
       </c>
       <c r="AC15">
-        <v>51.19642857142857</v>
+        <v>46.31428571428572</v>
       </c>
       <c r="AD15">
-        <v>29.33004602966737</v>
+        <v>33.02385055654711</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG15">
         <v>3</v>
@@ -2764,10 +2764,10 @@
         <v>6</v>
       </c>
       <c r="AJ15">
-        <v>2.621428571428571</v>
+        <v>2.342857142857143</v>
       </c>
       <c r="AK15">
-        <v>1.514412751049975</v>
+        <v>1.715505625001318</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -2819,13 +2819,13 @@
         </is>
       </c>
       <c r="B16">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="C16">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>93.75</v>
+        <v>95</v>
       </c>
       <c r="E16">
         <v>95</v>
@@ -2837,10 +2837,10 @@
         <v>97</v>
       </c>
       <c r="H16">
-        <v>88</v>
+        <v>91.92788461538461</v>
       </c>
       <c r="I16">
-        <v>14.17453924203585</v>
+        <v>10.34009088748746</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2867,49 +2867,49 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="S16">
-        <v>32.5</v>
+        <v>42</v>
       </c>
       <c r="T16">
-        <v>49.25</v>
+        <v>52</v>
       </c>
       <c r="U16">
         <v>80</v>
       </c>
       <c r="V16">
-        <v>30.74642857142857</v>
+        <v>38.88461538461539</v>
       </c>
       <c r="W16">
-        <v>22.33991208100413</v>
+        <v>18.60850550544139</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>24.75</v>
+        <v>42.75</v>
       </c>
       <c r="Z16">
-        <v>48.5</v>
+        <v>56.5</v>
       </c>
       <c r="AA16">
-        <v>63</v>
+        <v>66.25</v>
       </c>
       <c r="AB16">
         <v>89</v>
       </c>
       <c r="AC16">
-        <v>43.00714285714286</v>
+        <v>53.27403846153846</v>
       </c>
       <c r="AD16">
-        <v>25.54411362547971</v>
+        <v>18.72137167851447</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG16">
         <v>2</v>
@@ -2921,10 +2921,10 @@
         <v>5</v>
       </c>
       <c r="AJ16">
-        <v>2.021428571428571</v>
+        <v>2.442307692307693</v>
       </c>
       <c r="AK16">
-        <v>1.191173374961256</v>
+        <v>0.9150055893488173</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2948,10 +2948,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AT16">
-        <v>93.75</v>
+        <v>95</v>
       </c>
       <c r="AU16">
         <v>95</v>
@@ -2963,10 +2963,10 @@
         <v>97</v>
       </c>
       <c r="AX16">
-        <v>88</v>
+        <v>91.92788461538461</v>
       </c>
       <c r="AY16">
-        <v>14.17453924203585</v>
+        <v>10.34009088748746</v>
       </c>
     </row>
     <row r="17">
@@ -2976,13 +2976,13 @@
         </is>
       </c>
       <c r="B17">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="C17">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>93.75</v>
+        <v>95</v>
       </c>
       <c r="E17">
         <v>95</v>
@@ -2994,10 +2994,10 @@
         <v>97</v>
       </c>
       <c r="H17">
-        <v>88</v>
+        <v>91.92788461538461</v>
       </c>
       <c r="I17">
-        <v>14.17453924203585</v>
+        <v>10.34009088748746</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17">
         <v>2</v>
@@ -3015,52 +3015,52 @@
         <v>3</v>
       </c>
       <c r="O17">
-        <v>1.282142857142857</v>
+        <v>1.591346153846154</v>
       </c>
       <c r="P17">
-        <v>0.8136618283516431</v>
+        <v>0.6226964237253988</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>5.75</v>
+        <v>12</v>
       </c>
       <c r="S17">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="T17">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U17">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="V17">
-        <v>16.65</v>
+        <v>20.19230769230769</v>
       </c>
       <c r="W17">
-        <v>12.87598693019387</v>
+        <v>10.81560593988599</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="Z17">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AA17">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB17">
         <v>60</v>
       </c>
       <c r="AC17">
-        <v>23.09285714285714</v>
+        <v>28.91826923076923</v>
       </c>
       <c r="AD17">
-        <v>16.23920492985147</v>
+        <v>13.83470581229221</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -3078,19 +3078,19 @@
         <v>4</v>
       </c>
       <c r="AJ17">
-        <v>1.503571428571429</v>
+        <v>1.831730769230769</v>
       </c>
       <c r="AK17">
-        <v>1.019516415992523</v>
+        <v>0.8600375705844464</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="AN17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>1</v>
@@ -3099,10 +3099,10 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.6267857142857143</v>
+        <v>0.7596153846153846</v>
       </c>
       <c r="AR17">
-        <v>0.3957369224402026</v>
+        <v>0.3023675793142445</v>
       </c>
       <c r="AS17">
         <v>24.25</v>
@@ -3111,19 +3111,19 @@
         <v>31.66666666666667</v>
       </c>
       <c r="AU17">
-        <v>32.33333333333334</v>
+        <v>31.66666666666667</v>
       </c>
       <c r="AV17">
-        <v>48</v>
+        <v>47.5</v>
       </c>
       <c r="AW17">
         <v>95</v>
       </c>
       <c r="AX17">
-        <v>44.40476190476191</v>
+        <v>38.02564102564103</v>
       </c>
       <c r="AY17">
-        <v>19.62227963736433</v>
+        <v>12.88181015489506</v>
       </c>
     </row>
   </sheetData>

--- a/data/outputs/full_results/summary_results_all_wm.xlsx
+++ b/data/outputs/full_results/summary_results_all_wm.xlsx
@@ -1877,13 +1877,13 @@
         </is>
       </c>
       <c r="B10">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C10">
         <v>48</v>
       </c>
       <c r="D10">
-        <v>93.75</v>
+        <v>94</v>
       </c>
       <c r="E10">
         <v>95</v>
@@ -1895,10 +1895,10 @@
         <v>97</v>
       </c>
       <c r="H10">
-        <v>88</v>
+        <v>87.9074074074074</v>
       </c>
       <c r="I10">
-        <v>14.17453924203585</v>
+        <v>14.33801783145986</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1916,16 +1916,16 @@
         <v>3</v>
       </c>
       <c r="O10">
-        <v>1.185714285714286</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="P10">
-        <v>0.7340730803199257</v>
+        <v>0.7179759516601719</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S10">
         <v>18</v>
@@ -1934,34 +1934,34 @@
         <v>27</v>
       </c>
       <c r="U10">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="V10">
-        <v>20.33214285714286</v>
+        <v>20.42222222222222</v>
       </c>
       <c r="W10">
-        <v>12.8317078588355</v>
+        <v>11.07927947589917</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA10">
-        <v>38.25</v>
+        <v>39</v>
       </c>
       <c r="AB10">
         <v>72</v>
       </c>
       <c r="AC10">
-        <v>27.96428571428572</v>
+        <v>28.84814814814815</v>
       </c>
       <c r="AD10">
-        <v>14.88349532803782</v>
+        <v>14.32505981018338</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>6</v>
       </c>
       <c r="AJ10">
-        <v>1.782142857142857</v>
+        <v>1.840740740740741</v>
       </c>
       <c r="AK10">
-        <v>1.070474912671229</v>
+        <v>1.042145078077679</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="AN10">
         <v>0.5</v>
@@ -2000,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.5946428571428571</v>
+        <v>0.6129629629629629</v>
       </c>
       <c r="AR10">
-        <v>0.3702269200777145</v>
+        <v>0.36227610508882</v>
       </c>
       <c r="AS10">
         <v>24</v>
@@ -2012,19 +2012,19 @@
         <v>31.66666666666667</v>
       </c>
       <c r="AU10">
-        <v>47.25</v>
+        <v>46.75</v>
       </c>
       <c r="AV10">
-        <v>48</v>
+        <v>47.5</v>
       </c>
       <c r="AW10">
         <v>97</v>
       </c>
       <c r="AX10">
-        <v>45.07589285714285</v>
+        <v>43.72685185185185</v>
       </c>
       <c r="AY10">
-        <v>17.52027951664375</v>
+        <v>15.88765884579728</v>
       </c>
     </row>
     <row r="11">
@@ -2034,13 +2034,13 @@
         </is>
       </c>
       <c r="B11">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C11">
         <v>48</v>
       </c>
       <c r="D11">
-        <v>93.75</v>
+        <v>94</v>
       </c>
       <c r="E11">
         <v>95</v>
@@ -2052,10 +2052,10 @@
         <v>97</v>
       </c>
       <c r="H11">
-        <v>88</v>
+        <v>87.9074074074074</v>
       </c>
       <c r="I11">
-        <v>14.17453924203585</v>
+        <v>14.33801783145986</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2094,19 +2094,19 @@
         <v>95</v>
       </c>
       <c r="V11">
-        <v>31.83928571428572</v>
+        <v>32.35185185185185</v>
       </c>
       <c r="W11">
-        <v>22.09848985718829</v>
+        <v>21.23085834346495</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA11">
         <v>76</v>
@@ -2115,10 +2115,10 @@
         <v>95</v>
       </c>
       <c r="AC11">
-        <v>56.96428571428572</v>
+        <v>58.4074074074074</v>
       </c>
       <c r="AD11">
-        <v>23.33898878138103</v>
+        <v>21.40242709243008</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -2136,10 +2136,10 @@
         <v>6</v>
       </c>
       <c r="AJ11">
-        <v>2.617857142857143</v>
+        <v>2.707407407407407</v>
       </c>
       <c r="AK11">
-        <v>1.325393989284136</v>
+        <v>1.261210230707625</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>48</v>
       </c>
       <c r="AT11">
-        <v>93.75</v>
+        <v>94</v>
       </c>
       <c r="AU11">
         <v>95</v>
@@ -2178,10 +2178,10 @@
         <v>97</v>
       </c>
       <c r="AX11">
-        <v>88</v>
+        <v>87.9074074074074</v>
       </c>
       <c r="AY11">
-        <v>14.17453924203585</v>
+        <v>14.33801783145986</v>
       </c>
     </row>
     <row r="12">
@@ -2191,13 +2191,13 @@
         </is>
       </c>
       <c r="B12">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C12">
         <v>48</v>
       </c>
       <c r="D12">
-        <v>93.75</v>
+        <v>94</v>
       </c>
       <c r="E12">
         <v>95</v>
@@ -2209,10 +2209,10 @@
         <v>97</v>
       </c>
       <c r="H12">
-        <v>88</v>
+        <v>87.9074074074074</v>
       </c>
       <c r="I12">
-        <v>14.17453924203585</v>
+        <v>14.33801783145986</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>23.75</v>
+        <v>24</v>
       </c>
       <c r="S12">
-        <v>36</v>
+        <v>37.5</v>
       </c>
       <c r="T12">
         <v>49</v>
@@ -2251,19 +2251,19 @@
         <v>94</v>
       </c>
       <c r="V12">
-        <v>36.50714285714286</v>
+        <v>37.1962962962963</v>
       </c>
       <c r="W12">
-        <v>19.26833583891001</v>
+        <v>17.9979962015908</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z12">
-        <v>51</v>
+        <v>51.5</v>
       </c>
       <c r="AA12">
         <v>64</v>
@@ -2272,10 +2272,10 @@
         <v>95</v>
       </c>
       <c r="AC12">
-        <v>50.42142857142857</v>
+        <v>51.62222222222222</v>
       </c>
       <c r="AD12">
-        <v>19.51419586469747</v>
+        <v>17.49492402928868</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>5</v>
       </c>
       <c r="AJ12">
-        <v>2.246428571428571</v>
+        <v>2.322222222222222</v>
       </c>
       <c r="AK12">
-        <v>1.116825423751509</v>
+        <v>1.061258750874315</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>48</v>
       </c>
       <c r="AT12">
-        <v>93.75</v>
+        <v>94</v>
       </c>
       <c r="AU12">
         <v>95</v>
@@ -2335,10 +2335,10 @@
         <v>97</v>
       </c>
       <c r="AX12">
-        <v>88</v>
+        <v>87.9074074074074</v>
       </c>
       <c r="AY12">
-        <v>14.17453924203585</v>
+        <v>14.33801783145986</v>
       </c>
     </row>
     <row r="13">
@@ -2348,13 +2348,13 @@
         </is>
       </c>
       <c r="B13">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C13">
         <v>48</v>
       </c>
       <c r="D13">
-        <v>93.75</v>
+        <v>94</v>
       </c>
       <c r="E13">
         <v>95</v>
@@ -2366,10 +2366,10 @@
         <v>97</v>
       </c>
       <c r="H13">
-        <v>88</v>
+        <v>87.9074074074074</v>
       </c>
       <c r="I13">
-        <v>14.17453924203585</v>
+        <v>14.33801783145986</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2387,40 +2387,40 @@
         <v>3</v>
       </c>
       <c r="O13">
-        <v>1.607142857142857</v>
+        <v>1.659259259259259</v>
       </c>
       <c r="P13">
-        <v>0.6244301037178488</v>
+        <v>0.56756131238434</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S13">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="T13">
-        <v>26.25</v>
+        <v>26.75</v>
       </c>
       <c r="U13">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="V13">
-        <v>19.49285714285714</v>
+        <v>19.55185185185185</v>
       </c>
       <c r="W13">
-        <v>12.39724586628516</v>
+        <v>10.55993235201276</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z13">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="AA13">
         <v>43</v>
@@ -2429,10 +2429,10 @@
         <v>71</v>
       </c>
       <c r="AC13">
-        <v>30.84285714285714</v>
+        <v>31.83333333333333</v>
       </c>
       <c r="AD13">
-        <v>15.56568757878389</v>
+        <v>14.8706317193434</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>4</v>
       </c>
       <c r="AJ13">
-        <v>1.571428571428571</v>
+        <v>1.622222222222222</v>
       </c>
       <c r="AK13">
-        <v>0.932433184536668</v>
+        <v>0.9073566876439186</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2471,10 +2471,10 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.8208333333333333</v>
+        <v>0.8475308641975309</v>
       </c>
       <c r="AR13">
-        <v>0.2969084365144192</v>
+        <v>0.264411299824888</v>
       </c>
       <c r="AS13">
         <v>24</v>
@@ -2489,13 +2489,13 @@
         <v>32.33333333333334</v>
       </c>
       <c r="AW13">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AX13">
-        <v>35.75684523809524</v>
+        <v>34.06265432098765</v>
       </c>
       <c r="AY13">
-        <v>11.78143657951769</v>
+        <v>6.963390381782382</v>
       </c>
     </row>
     <row r="14">

--- a/data/outputs/full_results/summary_results_all_wm.xlsx
+++ b/data/outputs/full_results/summary_results_all_wm.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY17"/>
+  <dimension ref="A1:AY21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1245,7 +1245,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P algorithm weekly</t>
+          <t>C naive3b weekly</t>
         </is>
       </c>
       <c r="B6">
@@ -1273,136 +1273,136 @@
         <v>16.51349908934848</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>8</v>
+        <v>24.25</v>
       </c>
       <c r="L6">
+        <v>27</v>
+      </c>
+      <c r="M6">
+        <v>31.5</v>
+      </c>
+      <c r="N6">
+        <v>38</v>
+      </c>
+      <c r="O6">
+        <v>28</v>
+      </c>
+      <c r="P6">
+        <v>4.889898885571267</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
         <v>10</v>
       </c>
-      <c r="M6">
-        <v>11</v>
-      </c>
-      <c r="N6">
-        <v>13</v>
-      </c>
-      <c r="O6">
-        <v>9.304347826086957</v>
-      </c>
-      <c r="P6">
-        <v>2.336850351481111</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
+      <c r="V6">
+        <v>1.043478260869565</v>
+      </c>
+      <c r="W6">
+        <v>2.200570852595909</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>10</v>
+      </c>
+      <c r="AC6">
+        <v>0.8478260869565217</v>
+      </c>
+      <c r="AD6">
+        <v>2.780626558524358</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
         <v>1</v>
       </c>
-      <c r="S6">
-        <v>2.5</v>
-      </c>
-      <c r="T6">
-        <v>7</v>
-      </c>
-      <c r="U6">
-        <v>16</v>
-      </c>
-      <c r="V6">
-        <v>4.326086956521739</v>
-      </c>
-      <c r="W6">
-        <v>4.258608786008705</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>11</v>
-      </c>
-      <c r="AB6">
-        <v>37</v>
-      </c>
-      <c r="AC6">
-        <v>6.847826086956522</v>
-      </c>
-      <c r="AD6">
-        <v>8.941706005019022</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
+      <c r="AJ6">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="AK6">
+        <v>0.2848849246447679</v>
+      </c>
+      <c r="AL6">
         <v>1</v>
       </c>
-      <c r="AI6">
-        <v>4</v>
-      </c>
-      <c r="AJ6">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="AK6">
-        <v>0.8294110593149875</v>
-      </c>
-      <c r="AL6">
-        <v>0.2105263157894737</v>
-      </c>
       <c r="AM6">
-        <v>0.4210526315789473</v>
+        <v>1.276315789473684</v>
       </c>
       <c r="AN6">
-        <v>0.5263157894736842</v>
+        <v>1.447368421052631</v>
       </c>
       <c r="AO6">
-        <v>0.5789473684210527</v>
+        <v>1.684210526315789</v>
       </c>
       <c r="AP6">
-        <v>0.6842105263157895</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.4933801896044459</v>
+        <v>1.484308597580909</v>
       </c>
       <c r="AR6">
-        <v>0.1250151460540999</v>
+        <v>0.2629481254258852</v>
       </c>
       <c r="AS6">
-        <v>30.57142857142857</v>
+        <v>10.97435897435897</v>
       </c>
       <c r="AT6">
-        <v>35.66666666666666</v>
+        <v>12.96969696969697</v>
       </c>
       <c r="AU6">
-        <v>38.90909090909091</v>
+        <v>15.02216748768473</v>
       </c>
       <c r="AV6">
-        <v>47.55555555555556</v>
+        <v>16.95538461538462</v>
       </c>
       <c r="AW6">
-        <v>85.59999999999999</v>
+        <v>21.4</v>
       </c>
       <c r="AX6">
-        <v>44.03557119209293</v>
+        <v>15.14885835364933</v>
       </c>
       <c r="AY6">
-        <v>12.9697782913547</v>
+        <v>2.654212376717434</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P naive1 weekly</t>
+          <t>P algorithm weekly</t>
         </is>
       </c>
       <c r="B7">
@@ -1430,136 +1430,136 @@
         <v>16.51349908934848</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.304347826086957</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>2.336850351481111</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>167.5</v>
+        <v>2.5</v>
       </c>
       <c r="T7">
-        <v>232.75</v>
+        <v>7</v>
       </c>
       <c r="U7">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="V7">
-        <v>159.4782608695652</v>
+        <v>4.326086956521739</v>
       </c>
       <c r="W7">
-        <v>95.16132247234688</v>
+        <v>4.258608786008705</v>
       </c>
       <c r="X7">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>266.5</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>356.5</v>
+        <v>11</v>
       </c>
       <c r="AB7">
-        <v>395</v>
+        <v>37</v>
       </c>
       <c r="AC7">
-        <v>305.4782608695652</v>
+        <v>6.847826086956522</v>
       </c>
       <c r="AD7">
-        <v>78.2232529027398</v>
+        <v>8.941706005019022</v>
       </c>
       <c r="AE7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AJ7">
-        <v>9.021739130434783</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="AK7">
-        <v>2.165272684236664</v>
+        <v>0.8294110593149875</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.4933801896044459</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>0.1250151460540999</v>
       </c>
       <c r="AS7">
-        <v>316</v>
+        <v>30.57142857142857</v>
       </c>
       <c r="AT7">
-        <v>428</v>
+        <v>35.66666666666666</v>
       </c>
       <c r="AU7">
-        <v>428</v>
+        <v>38.90909090909091</v>
       </c>
       <c r="AV7">
-        <v>428</v>
+        <v>47.55555555555556</v>
       </c>
       <c r="AW7">
-        <v>428</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="AX7">
-        <v>425.5652173913044</v>
+        <v>44.03557119209293</v>
       </c>
       <c r="AY7">
-        <v>16.51349908934848</v>
+        <v>12.9697782913547</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P naive2 weekly</t>
+          <t>P naive1 weekly</t>
         </is>
       </c>
       <c r="B8">
@@ -1608,67 +1608,67 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="R8">
-        <v>119.25</v>
+        <v>56</v>
       </c>
       <c r="S8">
-        <v>158</v>
+        <v>167.5</v>
       </c>
       <c r="T8">
-        <v>220.5</v>
+        <v>232.75</v>
       </c>
       <c r="U8">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="V8">
-        <v>164.6086956521739</v>
+        <v>159.4782608695652</v>
       </c>
       <c r="W8">
-        <v>75.04531320353341</v>
+        <v>95.16132247234688</v>
       </c>
       <c r="X8">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="Y8">
-        <v>238.75</v>
+        <v>266.5</v>
       </c>
       <c r="Z8">
-        <v>271.5</v>
+        <v>338</v>
       </c>
       <c r="AA8">
-        <v>300</v>
+        <v>356.5</v>
       </c>
       <c r="AB8">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="AC8">
-        <v>260.0869565217391</v>
+        <v>305.4782608695652</v>
       </c>
       <c r="AD8">
-        <v>62.57682428182232</v>
+        <v>78.2232529027398</v>
       </c>
       <c r="AE8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF8">
-        <v>6.25</v>
+        <v>8</v>
       </c>
       <c r="AG8">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AJ8">
-        <v>7.978260869565218</v>
+        <v>9.021739130434783</v>
       </c>
       <c r="AK8">
-        <v>2.21599368666151</v>
+        <v>2.165272684236664</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1716,7 +1716,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P naive3 weekly</t>
+          <t>P naive2 weekly</t>
         </is>
       </c>
       <c r="B9">
@@ -1744,450 +1744,450 @@
         <v>16.51349908934848</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>119.25</v>
+      </c>
+      <c r="S9">
+        <v>158</v>
+      </c>
+      <c r="T9">
+        <v>220.5</v>
+      </c>
+      <c r="U9">
+        <v>316</v>
+      </c>
+      <c r="V9">
+        <v>164.6086956521739</v>
+      </c>
+      <c r="W9">
+        <v>75.04531320353341</v>
+      </c>
+      <c r="X9">
+        <v>115</v>
+      </c>
+      <c r="Y9">
+        <v>238.75</v>
+      </c>
+      <c r="Z9">
+        <v>271.5</v>
+      </c>
+      <c r="AA9">
+        <v>300</v>
+      </c>
+      <c r="AB9">
+        <v>366</v>
+      </c>
+      <c r="AC9">
+        <v>260.0869565217391</v>
+      </c>
+      <c r="AD9">
+        <v>62.57682428182232</v>
+      </c>
+      <c r="AE9">
+        <v>4</v>
+      </c>
+      <c r="AF9">
+        <v>6.25</v>
+      </c>
+      <c r="AG9">
+        <v>8</v>
+      </c>
+      <c r="AH9">
         <v>9</v>
       </c>
-      <c r="L9">
-        <v>11</v>
-      </c>
-      <c r="M9">
+      <c r="AI9">
         <v>13</v>
       </c>
-      <c r="N9">
-        <v>16</v>
-      </c>
-      <c r="O9">
-        <v>10.97826086956522</v>
-      </c>
-      <c r="P9">
-        <v>2.824410502386354</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>2.5</v>
-      </c>
-      <c r="T9">
-        <v>6.75</v>
-      </c>
-      <c r="U9">
-        <v>16</v>
-      </c>
-      <c r="V9">
-        <v>4.043478260869565</v>
-      </c>
-      <c r="W9">
-        <v>3.782747512584121</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>10.75</v>
-      </c>
-      <c r="AB9">
-        <v>25</v>
-      </c>
-      <c r="AC9">
-        <v>5.782608695652174</v>
-      </c>
-      <c r="AD9">
-        <v>7.497890202445132</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>1</v>
-      </c>
-      <c r="AI9">
-        <v>2</v>
-      </c>
       <c r="AJ9">
-        <v>0.5434782608695652</v>
+        <v>7.978260869565218</v>
       </c>
       <c r="AK9">
-        <v>0.6898154902783927</v>
+        <v>2.21599368666151</v>
       </c>
       <c r="AL9">
-        <v>0.2631578947368421</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>0.4736842105263158</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>0.5789473684210527</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>0.6842105263157895</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.8421052631578947</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
-        <v>0.5818895063746322</v>
+        <v>0</v>
       </c>
       <c r="AR9">
-        <v>0.1497856271453722</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>25.17647058823529</v>
+        <v>316</v>
       </c>
       <c r="AT9">
-        <v>30.57142857142857</v>
+        <v>428</v>
       </c>
       <c r="AU9">
-        <v>35.66666666666666</v>
+        <v>428</v>
       </c>
       <c r="AV9">
-        <v>42.8</v>
+        <v>428</v>
       </c>
       <c r="AW9">
-        <v>71.33333333333333</v>
+        <v>428</v>
       </c>
       <c r="AX9">
-        <v>37.97683421295953</v>
+        <v>425.5652173913044</v>
       </c>
       <c r="AY9">
-        <v>11.27872437091862</v>
+        <v>16.51349908934848</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C algorithm monthly</t>
+          <t>P naive3 weekly</t>
         </is>
       </c>
       <c r="B10">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="C10">
-        <v>48</v>
+        <v>316</v>
       </c>
       <c r="D10">
-        <v>94</v>
+        <v>428</v>
       </c>
       <c r="E10">
-        <v>95</v>
+        <v>428</v>
       </c>
       <c r="F10">
-        <v>95</v>
+        <v>428</v>
       </c>
       <c r="G10">
-        <v>97</v>
+        <v>428</v>
       </c>
       <c r="H10">
-        <v>87.9074074074074</v>
+        <v>425.5652173913044</v>
       </c>
       <c r="I10">
-        <v>14.33801783145986</v>
+        <v>16.51349908934848</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>11</v>
+      </c>
+      <c r="M10">
+        <v>13</v>
+      </c>
+      <c r="N10">
+        <v>16</v>
+      </c>
+      <c r="O10">
+        <v>10.97826086956522</v>
+      </c>
+      <c r="P10">
+        <v>2.824410502386354</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>1</v>
       </c>
-      <c r="L10">
+      <c r="S10">
+        <v>2.5</v>
+      </c>
+      <c r="T10">
+        <v>6.75</v>
+      </c>
+      <c r="U10">
+        <v>16</v>
+      </c>
+      <c r="V10">
+        <v>4.043478260869565</v>
+      </c>
+      <c r="W10">
+        <v>3.782747512584121</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>10.75</v>
+      </c>
+      <c r="AB10">
+        <v>25</v>
+      </c>
+      <c r="AC10">
+        <v>5.782608695652174</v>
+      </c>
+      <c r="AD10">
+        <v>7.497890202445132</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
         <v>1</v>
       </c>
-      <c r="M10">
+      <c r="AI10">
         <v>2</v>
       </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <v>1.222222222222222</v>
-      </c>
-      <c r="P10">
-        <v>0.7179759516601719</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>13</v>
-      </c>
-      <c r="S10">
-        <v>18</v>
-      </c>
-      <c r="T10">
-        <v>27</v>
-      </c>
-      <c r="U10">
-        <v>59</v>
-      </c>
-      <c r="V10">
-        <v>20.42222222222222</v>
-      </c>
-      <c r="W10">
-        <v>11.07927947589917</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>19</v>
-      </c>
-      <c r="Z10">
-        <v>28</v>
-      </c>
-      <c r="AA10">
-        <v>39</v>
-      </c>
-      <c r="AB10">
-        <v>72</v>
-      </c>
-      <c r="AC10">
-        <v>28.84814814814815</v>
-      </c>
-      <c r="AD10">
-        <v>14.32505981018338</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
-      <c r="AG10">
-        <v>2</v>
-      </c>
-      <c r="AH10">
-        <v>2</v>
-      </c>
-      <c r="AI10">
-        <v>6</v>
-      </c>
       <c r="AJ10">
-        <v>1.840740740740741</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="AK10">
-        <v>1.042145078077679</v>
+        <v>0.6898154902783927</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="AM10">
-        <v>0.5</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AN10">
-        <v>0.5</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="AQ10">
-        <v>0.6129629629629629</v>
+        <v>0.5818895063746322</v>
       </c>
       <c r="AR10">
-        <v>0.36227610508882</v>
+        <v>0.1497856271453722</v>
       </c>
       <c r="AS10">
-        <v>24</v>
+        <v>25.17647058823529</v>
       </c>
       <c r="AT10">
-        <v>31.66666666666667</v>
+        <v>30.57142857142857</v>
       </c>
       <c r="AU10">
-        <v>46.75</v>
+        <v>35.66666666666666</v>
       </c>
       <c r="AV10">
-        <v>47.5</v>
+        <v>42.8</v>
       </c>
       <c r="AW10">
-        <v>97</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="AX10">
-        <v>43.72685185185185</v>
+        <v>37.97683421295953</v>
       </c>
       <c r="AY10">
-        <v>15.88765884579728</v>
+        <v>11.27872437091862</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C naive1 monthly</t>
+          <t>P naive3b weekly</t>
         </is>
       </c>
       <c r="B11">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="C11">
-        <v>48</v>
+        <v>316</v>
       </c>
       <c r="D11">
-        <v>94</v>
+        <v>428</v>
       </c>
       <c r="E11">
-        <v>95</v>
+        <v>428</v>
       </c>
       <c r="F11">
-        <v>95</v>
+        <v>428</v>
       </c>
       <c r="G11">
-        <v>97</v>
+        <v>428</v>
       </c>
       <c r="H11">
-        <v>87.9074074074074</v>
+        <v>425.5652173913044</v>
       </c>
       <c r="I11">
-        <v>14.33801783145986</v>
+        <v>16.51349908934848</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>17.71739130434782</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.177604870203917</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>42</v>
+        <v>4.75</v>
       </c>
       <c r="U11">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="V11">
-        <v>32.35185185185185</v>
+        <v>3.326086956521739</v>
       </c>
       <c r="W11">
-        <v>21.23085834346495</v>
+        <v>3.64572411844699</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="AC11">
-        <v>58.4074074074074</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="AD11">
-        <v>21.40242709243008</v>
+        <v>3.258582128460583</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
         <v>2</v>
       </c>
-      <c r="AG11">
-        <v>3</v>
-      </c>
-      <c r="AH11">
-        <v>3</v>
-      </c>
-      <c r="AI11">
-        <v>6</v>
-      </c>
       <c r="AJ11">
-        <v>2.707407407407407</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="AK11">
-        <v>1.261210230707625</v>
+        <v>0.3544063553807966</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1.157894736842105</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>1.842105263157895</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.9373978424321674</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.3221855127419064</v>
       </c>
       <c r="AS11">
-        <v>48</v>
+        <v>11.88888888888889</v>
       </c>
       <c r="AT11">
-        <v>94</v>
+        <v>18.60869565217391</v>
       </c>
       <c r="AU11">
-        <v>95</v>
+        <v>22.52631578947368</v>
       </c>
       <c r="AV11">
-        <v>95</v>
+        <v>30.57142857142857</v>
       </c>
       <c r="AW11">
-        <v>97</v>
+        <v>53.5</v>
       </c>
       <c r="AX11">
-        <v>87.9074074074074</v>
+        <v>25.54220065509505</v>
       </c>
       <c r="AY11">
-        <v>14.33801783145986</v>
+        <v>9.504514390788751</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C naive2 monthly</t>
+          <t>C algorithm monthly</t>
         </is>
       </c>
       <c r="B12">
@@ -2218,133 +2218,133 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.7179759516601719</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="S12">
-        <v>37.5</v>
+        <v>18</v>
       </c>
       <c r="T12">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="U12">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="V12">
-        <v>37.1962962962963</v>
+        <v>20.42222222222222</v>
       </c>
       <c r="W12">
-        <v>17.9979962015908</v>
+        <v>11.07927947589917</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="Z12">
-        <v>51.5</v>
+        <v>28</v>
       </c>
       <c r="AA12">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="AB12">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="AC12">
-        <v>51.62222222222222</v>
+        <v>28.84814814814815</v>
       </c>
       <c r="AD12">
-        <v>17.49492402928868</v>
+        <v>14.32505981018338</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG12">
         <v>2</v>
       </c>
       <c r="AH12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ12">
-        <v>2.322222222222222</v>
+        <v>1.840740740740741</v>
       </c>
       <c r="AK12">
-        <v>1.061258750874315</v>
+        <v>1.042145078077679</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>0.6129629629629629</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>0.36227610508882</v>
       </c>
       <c r="AS12">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="AT12">
-        <v>94</v>
+        <v>31.66666666666667</v>
       </c>
       <c r="AU12">
-        <v>95</v>
+        <v>46.75</v>
       </c>
       <c r="AV12">
-        <v>95</v>
+        <v>47.5</v>
       </c>
       <c r="AW12">
         <v>97</v>
       </c>
       <c r="AX12">
-        <v>87.9074074074074</v>
+        <v>43.72685185185185</v>
       </c>
       <c r="AY12">
-        <v>14.33801783145986</v>
+        <v>15.88765884579728</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C naive3 monthly</t>
+          <t>C naive1 monthly</t>
         </is>
       </c>
       <c r="B13">
@@ -2375,143 +2375,143 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>16</v>
+      </c>
+      <c r="S13">
+        <v>26</v>
+      </c>
+      <c r="T13">
+        <v>42</v>
+      </c>
+      <c r="U13">
+        <v>95</v>
+      </c>
+      <c r="V13">
+        <v>32.35185185185185</v>
+      </c>
+      <c r="W13">
+        <v>21.23085834346495</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>44</v>
+      </c>
+      <c r="Z13">
+        <v>58</v>
+      </c>
+      <c r="AA13">
+        <v>76</v>
+      </c>
+      <c r="AB13">
+        <v>95</v>
+      </c>
+      <c r="AC13">
+        <v>58.4074074074074</v>
+      </c>
+      <c r="AD13">
+        <v>21.40242709243008</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
         <v>2</v>
       </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-      <c r="N13">
+      <c r="AG13">
         <v>3</v>
       </c>
-      <c r="O13">
-        <v>1.659259259259259</v>
-      </c>
-      <c r="P13">
-        <v>0.56756131238434</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>12</v>
-      </c>
-      <c r="S13">
-        <v>18</v>
-      </c>
-      <c r="T13">
-        <v>26.75</v>
-      </c>
-      <c r="U13">
-        <v>58</v>
-      </c>
-      <c r="V13">
-        <v>19.55185185185185</v>
-      </c>
-      <c r="W13">
-        <v>10.55993235201276</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>22</v>
-      </c>
-      <c r="Z13">
-        <v>32</v>
-      </c>
-      <c r="AA13">
-        <v>43</v>
-      </c>
-      <c r="AB13">
-        <v>71</v>
-      </c>
-      <c r="AC13">
-        <v>31.83333333333333</v>
-      </c>
-      <c r="AD13">
-        <v>14.8706317193434</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>1</v>
-      </c>
-      <c r="AG13">
-        <v>2</v>
-      </c>
       <c r="AH13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ13">
-        <v>1.622222222222222</v>
+        <v>2.707407407407407</v>
       </c>
       <c r="AK13">
-        <v>0.9073566876439186</v>
+        <v>1.261210230707625</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13">
-        <v>0.8475308641975309</v>
+        <v>0</v>
       </c>
       <c r="AR13">
-        <v>0.264411299824888</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="AT13">
-        <v>31.66666666666667</v>
+        <v>94</v>
       </c>
       <c r="AU13">
-        <v>31.66666666666667</v>
+        <v>95</v>
       </c>
       <c r="AV13">
-        <v>32.33333333333334</v>
+        <v>95</v>
       </c>
       <c r="AW13">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AX13">
-        <v>34.06265432098765</v>
+        <v>87.9074074074074</v>
       </c>
       <c r="AY13">
-        <v>6.963390381782382</v>
+        <v>14.33801783145986</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P algorithm monthly</t>
+          <t>C naive2 monthly</t>
         </is>
       </c>
       <c r="B14">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14">
         <v>95</v>
@@ -2523,152 +2523,152 @@
         <v>97</v>
       </c>
       <c r="H14">
-        <v>91.92788461538461</v>
+        <v>87.9074074074074</v>
       </c>
       <c r="I14">
-        <v>10.34009088748746</v>
+        <v>14.33801783145986</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>24</v>
+      </c>
+      <c r="S14">
+        <v>37.5</v>
+      </c>
+      <c r="T14">
+        <v>49</v>
+      </c>
+      <c r="U14">
+        <v>94</v>
+      </c>
+      <c r="V14">
+        <v>37.1962962962963</v>
+      </c>
+      <c r="W14">
+        <v>17.9979962015908</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>40</v>
+      </c>
+      <c r="Z14">
+        <v>51.5</v>
+      </c>
+      <c r="AA14">
+        <v>64</v>
+      </c>
+      <c r="AB14">
+        <v>95</v>
+      </c>
+      <c r="AC14">
+        <v>51.62222222222222</v>
+      </c>
+      <c r="AD14">
+        <v>17.49492402928868</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
         <v>2</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="O14">
-        <v>1.245192307692308</v>
-      </c>
-      <c r="P14">
-        <v>0.7036660120816551</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>12.75</v>
-      </c>
-      <c r="S14">
-        <v>21</v>
-      </c>
-      <c r="T14">
-        <v>30.25</v>
-      </c>
-      <c r="U14">
-        <v>59</v>
-      </c>
-      <c r="V14">
-        <v>21.82692307692308</v>
-      </c>
-      <c r="W14">
-        <v>11.73494908810151</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>21</v>
-      </c>
-      <c r="Z14">
-        <v>31</v>
-      </c>
-      <c r="AA14">
-        <v>41</v>
-      </c>
-      <c r="AB14">
-        <v>79</v>
-      </c>
-      <c r="AC14">
-        <v>31.19711538461538</v>
-      </c>
-      <c r="AD14">
-        <v>15.03762082072742</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>1</v>
       </c>
       <c r="AG14">
         <v>2</v>
       </c>
       <c r="AH14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI14">
         <v>5</v>
       </c>
       <c r="AJ14">
-        <v>1.990384615384615</v>
+        <v>2.322222222222222</v>
       </c>
       <c r="AK14">
-        <v>0.9680419233514812</v>
+        <v>1.061258750874315</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AN14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14">
-        <v>0.5769230769230769</v>
+        <v>0</v>
       </c>
       <c r="AR14">
-        <v>0.3312520182323</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>24.25</v>
+        <v>48</v>
       </c>
       <c r="AT14">
-        <v>31.66666666666667</v>
+        <v>94</v>
       </c>
       <c r="AU14">
-        <v>47.5</v>
+        <v>95</v>
       </c>
       <c r="AV14">
-        <v>47.5</v>
+        <v>95</v>
       </c>
       <c r="AW14">
         <v>97</v>
       </c>
       <c r="AX14">
-        <v>45.63501602564103</v>
+        <v>87.9074074074074</v>
       </c>
       <c r="AY14">
-        <v>17.34241118039616</v>
+        <v>14.33801783145986</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P naive1 monthly</t>
+          <t>C naive3 monthly</t>
         </is>
       </c>
       <c r="B15">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C15">
         <v>48</v>
       </c>
       <c r="D15">
-        <v>93.75</v>
+        <v>94</v>
       </c>
       <c r="E15">
         <v>95</v>
@@ -2680,152 +2680,152 @@
         <v>97</v>
       </c>
       <c r="H15">
-        <v>88</v>
+        <v>87.9074074074074</v>
       </c>
       <c r="I15">
-        <v>14.17453924203585</v>
+        <v>14.33801783145986</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.659259259259259</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.56756131238434</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S15">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="T15">
-        <v>49.25</v>
+        <v>26.75</v>
       </c>
       <c r="U15">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="V15">
-        <v>30.06785714285714</v>
+        <v>19.55185185185185</v>
       </c>
       <c r="W15">
-        <v>24.91675824158996</v>
+        <v>10.55993235201276</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z15">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="AA15">
-        <v>74.25</v>
+        <v>43</v>
       </c>
       <c r="AB15">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="AC15">
-        <v>46.31428571428572</v>
+        <v>31.83333333333333</v>
       </c>
       <c r="AD15">
-        <v>33.02385055654711</v>
+        <v>14.8706317193434</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH15">
+        <v>2</v>
+      </c>
+      <c r="AI15">
         <v>4</v>
       </c>
-      <c r="AI15">
-        <v>6</v>
-      </c>
       <c r="AJ15">
-        <v>2.342857142857143</v>
+        <v>1.622222222222222</v>
       </c>
       <c r="AK15">
-        <v>1.715505625001318</v>
+        <v>0.9073566876439186</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>0.8475308641975309</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>0.264411299824888</v>
       </c>
       <c r="AS15">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="AT15">
-        <v>93.75</v>
+        <v>31.66666666666667</v>
       </c>
       <c r="AU15">
-        <v>95</v>
+        <v>31.66666666666667</v>
       </c>
       <c r="AV15">
-        <v>95</v>
+        <v>32.33333333333334</v>
       </c>
       <c r="AW15">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AX15">
-        <v>88</v>
+        <v>34.06265432098765</v>
       </c>
       <c r="AY15">
-        <v>14.17453924203585</v>
+        <v>6.963390381782382</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P naive2 monthly</t>
+          <t>C naive3b monthly</t>
         </is>
       </c>
       <c r="B16">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="C16">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16">
         <v>95</v>
@@ -2837,142 +2837,142 @@
         <v>97</v>
       </c>
       <c r="H16">
-        <v>91.92788461538461</v>
+        <v>87.9074074074074</v>
       </c>
       <c r="I16">
-        <v>10.34009088748746</v>
+        <v>14.33801783145986</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>4.57037037037037</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.51100419963418</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="V16">
-        <v>38.88461538461539</v>
+        <v>2.762962962962963</v>
       </c>
       <c r="W16">
-        <v>18.60850550544139</v>
+        <v>4.71918871391919</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>42.75</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>56.5</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>66.25</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="AC16">
-        <v>53.27403846153846</v>
+        <v>1.107407407407407</v>
       </c>
       <c r="AD16">
-        <v>18.72137167851447</v>
+        <v>3.124364729591233</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
         <v>2</v>
       </c>
-      <c r="AG16">
-        <v>2</v>
-      </c>
-      <c r="AH16">
+      <c r="AJ16">
+        <v>0.1259259259259259</v>
+      </c>
+      <c r="AK16">
+        <v>0.3540447040773226</v>
+      </c>
+      <c r="AL16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AM16">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AN16">
+        <v>2.5</v>
+      </c>
+      <c r="AO16">
         <v>3</v>
       </c>
-      <c r="AI16">
-        <v>5</v>
-      </c>
-      <c r="AJ16">
-        <v>2.442307692307693</v>
-      </c>
-      <c r="AK16">
-        <v>0.9150055893488173</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
       <c r="AP16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>2.428395061728395</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>0.9244578751711852</v>
       </c>
       <c r="AS16">
-        <v>49</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="AT16">
-        <v>95</v>
+        <v>13.57142857142857</v>
       </c>
       <c r="AU16">
-        <v>95</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AV16">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="AW16">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="AX16">
-        <v>91.92788461538461</v>
+        <v>16.76990593768372</v>
       </c>
       <c r="AY16">
-        <v>10.34009088748746</v>
+        <v>4.730211154513722</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P naive3 monthly</t>
+          <t>P algorithm monthly</t>
         </is>
       </c>
       <c r="B17">
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>2</v>
@@ -3015,52 +3015,52 @@
         <v>3</v>
       </c>
       <c r="O17">
-        <v>1.591346153846154</v>
+        <v>1.245192307692308</v>
       </c>
       <c r="P17">
-        <v>0.6226964237253988</v>
+        <v>0.7036660120816551</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>12</v>
+        <v>12.75</v>
       </c>
       <c r="S17">
         <v>21</v>
       </c>
       <c r="T17">
-        <v>28</v>
+        <v>30.25</v>
       </c>
       <c r="U17">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="V17">
-        <v>20.19230769230769</v>
+        <v>21.82692307692308</v>
       </c>
       <c r="W17">
-        <v>10.81560593988599</v>
+        <v>11.73494908810151</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z17">
         <v>31</v>
       </c>
       <c r="AA17">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AB17">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="AC17">
-        <v>28.91826923076923</v>
+        <v>31.19711538461538</v>
       </c>
       <c r="AD17">
-        <v>13.83470581229221</v>
+        <v>15.03762082072742</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -3075,13 +3075,13 @@
         <v>2</v>
       </c>
       <c r="AI17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ17">
-        <v>1.831730769230769</v>
+        <v>1.990384615384615</v>
       </c>
       <c r="AK17">
-        <v>0.8600375705844464</v>
+        <v>0.9680419233514812</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>0.5</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO17">
         <v>1</v>
@@ -3099,10 +3099,10 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.7596153846153846</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="AR17">
-        <v>0.3023675793142445</v>
+        <v>0.3312520182323</v>
       </c>
       <c r="AS17">
         <v>24.25</v>
@@ -3111,19 +3111,647 @@
         <v>31.66666666666667</v>
       </c>
       <c r="AU17">
-        <v>31.66666666666667</v>
+        <v>47.5</v>
       </c>
       <c r="AV17">
         <v>47.5</v>
       </c>
       <c r="AW17">
+        <v>97</v>
+      </c>
+      <c r="AX17">
+        <v>45.63501602564103</v>
+      </c>
+      <c r="AY17">
+        <v>17.34241118039616</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>P naive1 monthly</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>280</v>
+      </c>
+      <c r="C18">
+        <v>48</v>
+      </c>
+      <c r="D18">
+        <v>93.75</v>
+      </c>
+      <c r="E18">
         <v>95</v>
       </c>
-      <c r="AX17">
+      <c r="F18">
+        <v>95</v>
+      </c>
+      <c r="G18">
+        <v>97</v>
+      </c>
+      <c r="H18">
+        <v>88</v>
+      </c>
+      <c r="I18">
+        <v>14.17453924203585</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>33</v>
+      </c>
+      <c r="T18">
+        <v>49.25</v>
+      </c>
+      <c r="U18">
+        <v>91</v>
+      </c>
+      <c r="V18">
+        <v>30.06785714285714</v>
+      </c>
+      <c r="W18">
+        <v>24.91675824158996</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>56</v>
+      </c>
+      <c r="AA18">
+        <v>74.25</v>
+      </c>
+      <c r="AB18">
+        <v>97</v>
+      </c>
+      <c r="AC18">
+        <v>46.31428571428572</v>
+      </c>
+      <c r="AD18">
+        <v>33.02385055654711</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>3</v>
+      </c>
+      <c r="AH18">
+        <v>4</v>
+      </c>
+      <c r="AI18">
+        <v>6</v>
+      </c>
+      <c r="AJ18">
+        <v>2.342857142857143</v>
+      </c>
+      <c r="AK18">
+        <v>1.715505625001318</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>48</v>
+      </c>
+      <c r="AT18">
+        <v>93.75</v>
+      </c>
+      <c r="AU18">
+        <v>95</v>
+      </c>
+      <c r="AV18">
+        <v>95</v>
+      </c>
+      <c r="AW18">
+        <v>97</v>
+      </c>
+      <c r="AX18">
+        <v>88</v>
+      </c>
+      <c r="AY18">
+        <v>14.17453924203585</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>P naive2 monthly</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>208</v>
+      </c>
+      <c r="C19">
+        <v>49</v>
+      </c>
+      <c r="D19">
+        <v>95</v>
+      </c>
+      <c r="E19">
+        <v>95</v>
+      </c>
+      <c r="F19">
+        <v>95</v>
+      </c>
+      <c r="G19">
+        <v>97</v>
+      </c>
+      <c r="H19">
+        <v>91.92788461538461</v>
+      </c>
+      <c r="I19">
+        <v>10.34009088748746</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>27</v>
+      </c>
+      <c r="S19">
+        <v>42</v>
+      </c>
+      <c r="T19">
+        <v>52</v>
+      </c>
+      <c r="U19">
+        <v>80</v>
+      </c>
+      <c r="V19">
+        <v>38.88461538461539</v>
+      </c>
+      <c r="W19">
+        <v>18.60850550544139</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>42.75</v>
+      </c>
+      <c r="Z19">
+        <v>56.5</v>
+      </c>
+      <c r="AA19">
+        <v>66.25</v>
+      </c>
+      <c r="AB19">
+        <v>89</v>
+      </c>
+      <c r="AC19">
+        <v>53.27403846153846</v>
+      </c>
+      <c r="AD19">
+        <v>18.72137167851447</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>2</v>
+      </c>
+      <c r="AG19">
+        <v>2</v>
+      </c>
+      <c r="AH19">
+        <v>3</v>
+      </c>
+      <c r="AI19">
+        <v>5</v>
+      </c>
+      <c r="AJ19">
+        <v>2.442307692307693</v>
+      </c>
+      <c r="AK19">
+        <v>0.9150055893488173</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>49</v>
+      </c>
+      <c r="AT19">
+        <v>95</v>
+      </c>
+      <c r="AU19">
+        <v>95</v>
+      </c>
+      <c r="AV19">
+        <v>95</v>
+      </c>
+      <c r="AW19">
+        <v>97</v>
+      </c>
+      <c r="AX19">
+        <v>91.92788461538461</v>
+      </c>
+      <c r="AY19">
+        <v>10.34009088748746</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>P naive3 monthly</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>208</v>
+      </c>
+      <c r="C20">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>95</v>
+      </c>
+      <c r="E20">
+        <v>95</v>
+      </c>
+      <c r="F20">
+        <v>95</v>
+      </c>
+      <c r="G20">
+        <v>97</v>
+      </c>
+      <c r="H20">
+        <v>91.92788461538461</v>
+      </c>
+      <c r="I20">
+        <v>10.34009088748746</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>1.591346153846154</v>
+      </c>
+      <c r="P20">
+        <v>0.6226964237253988</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12</v>
+      </c>
+      <c r="S20">
+        <v>21</v>
+      </c>
+      <c r="T20">
+        <v>28</v>
+      </c>
+      <c r="U20">
+        <v>51</v>
+      </c>
+      <c r="V20">
+        <v>20.19230769230769</v>
+      </c>
+      <c r="W20">
+        <v>10.81560593988599</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>20</v>
+      </c>
+      <c r="Z20">
+        <v>31</v>
+      </c>
+      <c r="AA20">
+        <v>38</v>
+      </c>
+      <c r="AB20">
+        <v>60</v>
+      </c>
+      <c r="AC20">
+        <v>28.91826923076923</v>
+      </c>
+      <c r="AD20">
+        <v>13.83470581229221</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>2</v>
+      </c>
+      <c r="AH20">
+        <v>2</v>
+      </c>
+      <c r="AI20">
+        <v>4</v>
+      </c>
+      <c r="AJ20">
+        <v>1.831730769230769</v>
+      </c>
+      <c r="AK20">
+        <v>0.8600375705844464</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0.5</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AQ20">
+        <v>0.7596153846153846</v>
+      </c>
+      <c r="AR20">
+        <v>0.3023675793142445</v>
+      </c>
+      <c r="AS20">
+        <v>24.25</v>
+      </c>
+      <c r="AT20">
+        <v>31.66666666666667</v>
+      </c>
+      <c r="AU20">
+        <v>31.66666666666667</v>
+      </c>
+      <c r="AV20">
+        <v>47.5</v>
+      </c>
+      <c r="AW20">
+        <v>95</v>
+      </c>
+      <c r="AX20">
         <v>38.02564102564103</v>
       </c>
-      <c r="AY17">
+      <c r="AY20">
         <v>12.88181015489506</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>P naive3b monthly</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>208</v>
+      </c>
+      <c r="C21">
+        <v>49</v>
+      </c>
+      <c r="D21">
+        <v>95</v>
+      </c>
+      <c r="E21">
+        <v>95</v>
+      </c>
+      <c r="F21">
+        <v>95</v>
+      </c>
+      <c r="G21">
+        <v>97</v>
+      </c>
+      <c r="H21">
+        <v>91.92788461538461</v>
+      </c>
+      <c r="I21">
+        <v>10.34009088748746</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <v>9</v>
+      </c>
+      <c r="O21">
+        <v>5.091346153846154</v>
+      </c>
+      <c r="P21">
+        <v>1.874394489123008</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="U21">
+        <v>17</v>
+      </c>
+      <c r="V21">
+        <v>3.192307692307693</v>
+      </c>
+      <c r="W21">
+        <v>3.197453464632639</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>19</v>
+      </c>
+      <c r="AC21">
+        <v>2.028846153846154</v>
+      </c>
+      <c r="AD21">
+        <v>4.005929737070113</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>2</v>
+      </c>
+      <c r="AJ21">
+        <v>0.2259615384615385</v>
+      </c>
+      <c r="AK21">
+        <v>0.4416690330388217</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AN21">
+        <v>2.5</v>
+      </c>
+      <c r="AO21">
+        <v>3</v>
+      </c>
+      <c r="AP21">
+        <v>4.5</v>
+      </c>
+      <c r="AQ21">
+        <v>2.469551282051282</v>
+      </c>
+      <c r="AR21">
+        <v>0.9321491288581372</v>
+      </c>
+      <c r="AS21">
+        <v>9.5</v>
+      </c>
+      <c r="AT21">
+        <v>13</v>
+      </c>
+      <c r="AU21">
+        <v>14.58333333333333</v>
+      </c>
+      <c r="AV21">
+        <v>19</v>
+      </c>
+      <c r="AW21">
+        <v>94</v>
+      </c>
+      <c r="AX21">
+        <v>17.22646901709402</v>
+      </c>
+      <c r="AY21">
+        <v>9.698409153297915</v>
       </c>
     </row>
   </sheetData>

--- a/data/outputs/full_results/summary_results_all_wm.xlsx
+++ b/data/outputs/full_results/summary_results_all_wm.xlsx
@@ -1273,25 +1273,25 @@
         <v>16.51349908934848</v>
       </c>
       <c r="J6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>24.25</v>
+        <v>24</v>
       </c>
       <c r="L6">
         <v>27</v>
       </c>
       <c r="M6">
-        <v>31.5</v>
+        <v>30.75</v>
       </c>
       <c r="N6">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O6">
-        <v>28</v>
+        <v>27.23913043478261</v>
       </c>
       <c r="P6">
-        <v>4.889898885571267</v>
+        <v>4.571334755766127</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1357,46 +1357,46 @@
         <v>0.2848849246447679</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="AM6">
         <v>1.276315789473684</v>
       </c>
       <c r="AN6">
-        <v>1.447368421052631</v>
+        <v>1.421052631578947</v>
       </c>
       <c r="AO6">
-        <v>1.684210526315789</v>
+        <v>1.631578947368421</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.894736842105263</v>
       </c>
       <c r="AQ6">
-        <v>1.484308597580909</v>
+        <v>1.443036940176528</v>
       </c>
       <c r="AR6">
-        <v>0.2629481254258852</v>
+        <v>0.240131076488877</v>
       </c>
       <c r="AS6">
-        <v>10.97435897435897</v>
+        <v>11.56756756756757</v>
       </c>
       <c r="AT6">
-        <v>12.96969696969697</v>
+        <v>13.375</v>
       </c>
       <c r="AU6">
-        <v>15.02216748768473</v>
+        <v>15.28571428571429</v>
       </c>
       <c r="AV6">
-        <v>16.95538461538462</v>
+        <v>17.12</v>
       </c>
       <c r="AW6">
-        <v>21.4</v>
+        <v>22.52631578947368</v>
       </c>
       <c r="AX6">
-        <v>15.14885835364933</v>
+        <v>15.51941047185875</v>
       </c>
       <c r="AY6">
-        <v>2.654212376717434</v>
+        <v>2.650506708276222</v>
       </c>
     </row>
     <row r="7">
@@ -2061,22 +2061,22 @@
         <v>7</v>
       </c>
       <c r="K11">
-        <v>12.25</v>
+        <v>12</v>
       </c>
       <c r="L11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M11">
         <v>22</v>
       </c>
       <c r="N11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O11">
-        <v>17.71739130434782</v>
+        <v>17.1304347826087</v>
       </c>
       <c r="P11">
-        <v>6.177604870203917</v>
+        <v>6.344231660517989</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -2145,43 +2145,43 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="AM11">
-        <v>0.6842105263157895</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="AN11">
-        <v>0.9473684210526315</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="AO11">
         <v>1.157894736842105</v>
       </c>
       <c r="AP11">
-        <v>1.842105263157895</v>
+        <v>1.789473684210526</v>
       </c>
       <c r="AQ11">
-        <v>0.9373978424321674</v>
+        <v>0.9073226544622426</v>
       </c>
       <c r="AR11">
-        <v>0.3221855127419064</v>
+        <v>0.3332751163582248</v>
       </c>
       <c r="AS11">
-        <v>11.88888888888889</v>
+        <v>12.22857142857143</v>
       </c>
       <c r="AT11">
         <v>18.60869565217391</v>
       </c>
       <c r="AU11">
-        <v>22.52631578947368</v>
+        <v>23.77777777777778</v>
       </c>
       <c r="AV11">
-        <v>30.57142857142857</v>
+        <v>32.92307692307692</v>
       </c>
       <c r="AW11">
         <v>53.5</v>
       </c>
       <c r="AX11">
-        <v>25.54220065509505</v>
+        <v>26.84480643108547</v>
       </c>
       <c r="AY11">
-        <v>9.504514390788751</v>
+        <v>10.65341514253792</v>
       </c>
     </row>
     <row r="12">
@@ -2843,25 +2843,25 @@
         <v>14.33801783145986</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
         <v>4</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>5</v>
       </c>
-      <c r="M16">
-        <v>6</v>
-      </c>
       <c r="N16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O16">
-        <v>4.57037037037037</v>
+        <v>3.925925925925926</v>
       </c>
       <c r="P16">
-        <v>1.51100419963418</v>
+        <v>1.350366215671038</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -2870,19 +2870,19 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U16">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V16">
-        <v>2.762962962962963</v>
+        <v>3.111111111111111</v>
       </c>
       <c r="W16">
-        <v>4.71918871391919</v>
+        <v>5.245875231005908</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -2897,13 +2897,13 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="AC16">
-        <v>1.107407407407407</v>
+        <v>1.422222222222222</v>
       </c>
       <c r="AD16">
-        <v>3.124364729591233</v>
+        <v>4.317280340852534</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -2921,52 +2921,52 @@
         <v>2</v>
       </c>
       <c r="AJ16">
-        <v>0.1259259259259259</v>
+        <v>0.137037037037037</v>
       </c>
       <c r="AK16">
-        <v>0.3540447040773226</v>
+        <v>0.3755027837854114</v>
       </c>
       <c r="AL16">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AM16">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="AN16">
+        <v>2</v>
+      </c>
+      <c r="AO16">
         <v>2.5</v>
       </c>
-      <c r="AO16">
-        <v>3</v>
-      </c>
       <c r="AP16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ16">
-        <v>2.428395061728395</v>
+        <v>2.035802469135803</v>
       </c>
       <c r="AR16">
-        <v>0.9244578751711852</v>
+        <v>0.7307731544163961</v>
       </c>
       <c r="AS16">
-        <v>9.333333333333334</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="AT16">
-        <v>13.57142857142857</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AU16">
-        <v>15.83333333333333</v>
+        <v>19</v>
       </c>
       <c r="AV16">
-        <v>19</v>
+        <v>21.83333333333333</v>
       </c>
       <c r="AW16">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="AX16">
-        <v>16.76990593768372</v>
+        <v>19.04585537918871</v>
       </c>
       <c r="AY16">
-        <v>4.730211154513722</v>
+        <v>5.78614337239353</v>
       </c>
     </row>
     <row r="17">
@@ -3631,22 +3631,22 @@
         <v>0</v>
       </c>
       <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
         <v>4</v>
       </c>
-      <c r="L21">
-        <v>5</v>
-      </c>
       <c r="M21">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O21">
-        <v>5.091346153846154</v>
+        <v>4.216346153846154</v>
       </c>
       <c r="P21">
-        <v>1.874394489123008</v>
+        <v>1.726833441496639</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -3658,16 +3658,16 @@
         <v>2</v>
       </c>
       <c r="T21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U21">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V21">
-        <v>3.192307692307693</v>
+        <v>3.177884615384615</v>
       </c>
       <c r="W21">
-        <v>3.197453464632639</v>
+        <v>3.512859928250906</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -3682,13 +3682,13 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AC21">
-        <v>2.028846153846154</v>
+        <v>2.418269230769231</v>
       </c>
       <c r="AD21">
-        <v>4.005929737070113</v>
+        <v>4.622257942559145</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -3706,52 +3706,52 @@
         <v>2</v>
       </c>
       <c r="AJ21">
-        <v>0.2259615384615385</v>
+        <v>0.2644230769230769</v>
       </c>
       <c r="AK21">
-        <v>0.4416690330388217</v>
+        <v>0.4937127935922568</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="AN21">
+        <v>2</v>
+      </c>
+      <c r="AO21">
         <v>2.5</v>
       </c>
-      <c r="AO21">
-        <v>3</v>
-      </c>
       <c r="AP21">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AQ21">
-        <v>2.469551282051282</v>
+        <v>2.012820512820513</v>
       </c>
       <c r="AR21">
-        <v>0.9321491288581372</v>
+        <v>0.8083011042240419</v>
       </c>
       <c r="AS21">
-        <v>9.5</v>
+        <v>10.55555555555556</v>
       </c>
       <c r="AT21">
-        <v>13</v>
+        <v>14.26428571428572</v>
       </c>
       <c r="AU21">
-        <v>14.58333333333333</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="AV21">
-        <v>19</v>
+        <v>19.63333333333333</v>
       </c>
       <c r="AW21">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AX21">
-        <v>17.22646901709402</v>
+        <v>20.93875534188034</v>
       </c>
       <c r="AY21">
-        <v>9.698409153297915</v>
+        <v>13.58581228733469</v>
       </c>
     </row>
   </sheetData>

--- a/data/outputs/full_results/summary_results_all_wm.xlsx
+++ b/data/outputs/full_results/summary_results_all_wm.xlsx
@@ -645,10 +645,10 @@
         <v>16.51349908934848</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2">
         <v>10</v>
@@ -657,55 +657,55 @@
         <v>11</v>
       </c>
       <c r="N2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2">
-        <v>10.21739130434783</v>
+        <v>9.608695652173912</v>
       </c>
       <c r="P2">
-        <v>1.73734207567845</v>
+        <v>2.123710179741161</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="S2">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="T2">
-        <v>19.75</v>
+        <v>21.5</v>
       </c>
       <c r="U2">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="V2">
-        <v>14.23913043478261</v>
+        <v>13.95652173913044</v>
       </c>
       <c r="W2">
-        <v>17.67381589006579</v>
+        <v>14.12634500457941</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Z2">
-        <v>25.5</v>
+        <v>34</v>
       </c>
       <c r="AA2">
-        <v>46.5</v>
+        <v>51</v>
       </c>
       <c r="AB2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AC2">
-        <v>33.32608695652174</v>
+        <v>37.28260869565217</v>
       </c>
       <c r="AD2">
-        <v>28.90294436967824</v>
+        <v>26.56870593886162</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -717,22 +717,22 @@
         <v>2</v>
       </c>
       <c r="AH2">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AI2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ2">
-        <v>2.130434782608696</v>
+        <v>2.173913043478261</v>
       </c>
       <c r="AK2">
-        <v>1.654739934614418</v>
+        <v>1.387313115759892</v>
       </c>
       <c r="AL2">
         <v>0.3157894736842105</v>
       </c>
       <c r="AM2">
-        <v>0.4736842105263158</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="AN2">
         <v>0.5263157894736842</v>
@@ -741,16 +741,16 @@
         <v>0.5789473684210527</v>
       </c>
       <c r="AP2">
-        <v>0.6842105263157895</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="AQ2">
-        <v>0.5402092186989212</v>
+        <v>0.5077639751552795</v>
       </c>
       <c r="AR2">
-        <v>0.08674673728261532</v>
+        <v>0.1080383721469593</v>
       </c>
       <c r="AS2">
-        <v>30.57142857142857</v>
+        <v>28.53333333333333</v>
       </c>
       <c r="AT2">
         <v>35.66666666666666</v>
@@ -759,16 +759,16 @@
         <v>38.90909090909091</v>
       </c>
       <c r="AV2">
-        <v>42.8</v>
+        <v>47.55555555555556</v>
       </c>
       <c r="AW2">
         <v>61.14285714285715</v>
       </c>
       <c r="AX2">
-        <v>38.863302398085</v>
+        <v>41.73200784722524</v>
       </c>
       <c r="AY2">
-        <v>6.409627340594831</v>
+        <v>8.516735997592548</v>
       </c>
     </row>
     <row r="3">
@@ -823,49 +823,49 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R3">
-        <v>76</v>
+        <v>79.25</v>
       </c>
       <c r="S3">
-        <v>96.5</v>
+        <v>100</v>
       </c>
       <c r="T3">
-        <v>130.5</v>
+        <v>133</v>
       </c>
       <c r="U3">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="V3">
-        <v>109.7826086956522</v>
+        <v>111.2608695652174</v>
       </c>
       <c r="W3">
-        <v>48.05132119514545</v>
+        <v>48.1684243197686</v>
       </c>
       <c r="X3">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Y3">
-        <v>255.25</v>
+        <v>254.75</v>
       </c>
       <c r="Z3">
-        <v>278.5</v>
+        <v>282.5</v>
       </c>
       <c r="AA3">
-        <v>316.75</v>
+        <v>321.25</v>
       </c>
       <c r="AB3">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="AC3">
-        <v>282.1956521739131</v>
+        <v>285</v>
       </c>
       <c r="AD3">
-        <v>50.22288967535615</v>
+        <v>49.45300799749192</v>
       </c>
       <c r="AE3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF3">
         <v>12</v>
@@ -877,13 +877,13 @@
         <v>15</v>
       </c>
       <c r="AI3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ3">
-        <v>13.08695652173913</v>
+        <v>13.17391304347826</v>
       </c>
       <c r="AK3">
-        <v>2.834910047222912</v>
+        <v>2.923501308941325</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -983,43 +983,43 @@
         <v>42</v>
       </c>
       <c r="R4">
-        <v>109.75</v>
+        <v>101</v>
       </c>
       <c r="S4">
-        <v>146</v>
+        <v>137.5</v>
       </c>
       <c r="T4">
-        <v>189</v>
+        <v>178.25</v>
       </c>
       <c r="U4">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="V4">
-        <v>161.6086956521739</v>
+        <v>148.9565217391304</v>
       </c>
       <c r="W4">
-        <v>77.75445060812905</v>
+        <v>71.53086560569162</v>
       </c>
       <c r="X4">
         <v>153</v>
       </c>
       <c r="Y4">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="Z4">
-        <v>290.5</v>
+        <v>291</v>
       </c>
       <c r="AA4">
-        <v>319.5</v>
+        <v>318.75</v>
       </c>
       <c r="AB4">
         <v>423</v>
       </c>
       <c r="AC4">
-        <v>288.8913043478261</v>
+        <v>286.4565217391304</v>
       </c>
       <c r="AD4">
-        <v>58.09770630808818</v>
+        <v>56.56999853543853</v>
       </c>
       <c r="AE4">
         <v>2</v>
@@ -1028,7 +1028,7 @@
         <v>10</v>
       </c>
       <c r="AG4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH4">
         <v>13</v>
@@ -1037,10 +1037,10 @@
         <v>17</v>
       </c>
       <c r="AJ4">
-        <v>11.15217391304348</v>
+        <v>11.28260869565217</v>
       </c>
       <c r="AK4">
-        <v>2.748473445422611</v>
+        <v>2.963954141782455</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>18</v>
       </c>
       <c r="O5">
-        <v>14.45652173913044</v>
+        <v>14.41304347826087</v>
       </c>
       <c r="P5">
-        <v>1.68267672658285</v>
+        <v>1.856832272165831</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1143,40 +1143,40 @@
         <v>2</v>
       </c>
       <c r="S5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T5">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="U5">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="V5">
-        <v>6.586956521739131</v>
+        <v>5.739130434782608</v>
       </c>
       <c r="W5">
-        <v>6.675248100113405</v>
+        <v>5.421909391466752</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z5">
-        <v>18.5</v>
+        <v>21.5</v>
       </c>
       <c r="AA5">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AB5">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AC5">
-        <v>20.45652173913043</v>
+        <v>21.8695652173913</v>
       </c>
       <c r="AD5">
-        <v>13.22238257524655</v>
+        <v>12.71850566982733</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="AG5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AH5">
         <v>2</v>
@@ -1194,13 +1194,13 @@
         <v>3</v>
       </c>
       <c r="AJ5">
-        <v>1.608695652173913</v>
+        <v>1.521739130434783</v>
       </c>
       <c r="AK5">
-        <v>0.9304302677212234</v>
+        <v>0.9126062905469662</v>
       </c>
       <c r="AL5">
-        <v>0.5263157894736842</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AM5">
         <v>0.7368421052631579</v>
@@ -1215,10 +1215,10 @@
         <v>0.9473684210526315</v>
       </c>
       <c r="AQ5">
-        <v>0.7645472376593658</v>
+        <v>0.762258908139915</v>
       </c>
       <c r="AR5">
-        <v>0.07941089486231018</v>
+        <v>0.08961497932235953</v>
       </c>
       <c r="AS5">
         <v>22.52631578947368</v>
@@ -1233,13 +1233,13 @@
         <v>28.53333333333333</v>
       </c>
       <c r="AW5">
-        <v>38.90909090909091</v>
+        <v>42.8</v>
       </c>
       <c r="AX5">
-        <v>27.84140730569591</v>
+        <v>28.02903827376166</v>
       </c>
       <c r="AY5">
-        <v>3.106114680101592</v>
+        <v>3.81998761520793</v>
       </c>
     </row>
     <row r="6">
@@ -1273,10 +1273,10 @@
         <v>16.51349908934848</v>
       </c>
       <c r="J6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>24</v>
+        <v>24.25</v>
       </c>
       <c r="L6">
         <v>27</v>
@@ -1288,10 +1288,10 @@
         <v>36</v>
       </c>
       <c r="O6">
-        <v>27.23913043478261</v>
+        <v>27.34782608695652</v>
       </c>
       <c r="P6">
-        <v>4.571334755766127</v>
+        <v>4.403117033821219</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1306,34 +1306,34 @@
         <v>1</v>
       </c>
       <c r="U6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V6">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="W6">
+        <v>1.954556178540915</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>19</v>
+      </c>
+      <c r="AC6">
         <v>1.043478260869565</v>
       </c>
-      <c r="W6">
-        <v>2.200570852595909</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>10</v>
-      </c>
-      <c r="AC6">
-        <v>0.8478260869565217</v>
-      </c>
       <c r="AD6">
-        <v>2.780626558524358</v>
+        <v>3.626792410437327</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="AI6">
+        <v>2</v>
+      </c>
+      <c r="AJ6">
+        <v>0.108695652173913</v>
+      </c>
+      <c r="AK6">
+        <v>0.3787852437326</v>
+      </c>
+      <c r="AL6">
         <v>1</v>
       </c>
-      <c r="AJ6">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="AK6">
-        <v>0.2848849246447679</v>
-      </c>
-      <c r="AL6">
-        <v>0.9473684210526315</v>
-      </c>
       <c r="AM6">
-        <v>1.276315789473684</v>
+        <v>1.315789473684211</v>
       </c>
       <c r="AN6">
         <v>1.421052631578947</v>
@@ -1372,16 +1372,16 @@
         <v>1.894736842105263</v>
       </c>
       <c r="AQ6">
-        <v>1.443036940176528</v>
+        <v>1.448757763975155</v>
       </c>
       <c r="AR6">
-        <v>0.240131076488877</v>
+        <v>0.2310219063668679</v>
       </c>
       <c r="AS6">
         <v>11.56756756756757</v>
       </c>
       <c r="AT6">
-        <v>13.375</v>
+        <v>13.48286290322581</v>
       </c>
       <c r="AU6">
         <v>15.28571428571429</v>
@@ -1390,13 +1390,13 @@
         <v>17.12</v>
       </c>
       <c r="AW6">
-        <v>22.52631578947368</v>
+        <v>21.4</v>
       </c>
       <c r="AX6">
-        <v>15.51941047185875</v>
+        <v>15.40019840762877</v>
       </c>
       <c r="AY6">
-        <v>2.650506708276222</v>
+        <v>2.454338157577931</v>
       </c>
     </row>
     <row r="7">
@@ -1433,85 +1433,85 @@
         <v>4</v>
       </c>
       <c r="K7">
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M7">
         <v>11</v>
       </c>
       <c r="N7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O7">
-        <v>9.304347826086957</v>
+        <v>8.956521739130435</v>
       </c>
       <c r="P7">
-        <v>2.336850351481111</v>
+        <v>2.289653265735816</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>5.75</v>
+      </c>
+      <c r="U7">
+        <v>18</v>
+      </c>
+      <c r="V7">
+        <v>4.673913043478261</v>
+      </c>
+      <c r="W7">
+        <v>4.315627148070072</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>9</v>
+      </c>
+      <c r="AA7">
+        <v>15.5</v>
+      </c>
+      <c r="AB7">
+        <v>48</v>
+      </c>
+      <c r="AC7">
+        <v>9.521739130434783</v>
+      </c>
+      <c r="AD7">
+        <v>11.79404582440702</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
         <v>1</v>
-      </c>
-      <c r="S7">
-        <v>2.5</v>
-      </c>
-      <c r="T7">
-        <v>7</v>
-      </c>
-      <c r="U7">
-        <v>16</v>
-      </c>
-      <c r="V7">
-        <v>4.326086956521739</v>
-      </c>
-      <c r="W7">
-        <v>4.258608786008705</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>11</v>
-      </c>
-      <c r="AB7">
-        <v>37</v>
-      </c>
-      <c r="AC7">
-        <v>6.847826086956522</v>
-      </c>
-      <c r="AD7">
-        <v>8.941706005019022</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
       </c>
       <c r="AH7">
         <v>1</v>
       </c>
       <c r="AI7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ7">
-        <v>0.6086956521739131</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="AK7">
-        <v>0.8294110593149875</v>
+        <v>0.7792601470700232</v>
       </c>
       <c r="AL7">
         <v>0.2105263157894737</v>
@@ -1520,28 +1520,28 @@
         <v>0.4210526315789473</v>
       </c>
       <c r="AN7">
-        <v>0.5263157894736842</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AO7">
         <v>0.5789473684210527</v>
       </c>
       <c r="AP7">
-        <v>0.6842105263157895</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="AQ7">
-        <v>0.4933801896044459</v>
+        <v>0.473847662634848</v>
       </c>
       <c r="AR7">
-        <v>0.1250151460540999</v>
+        <v>0.1184007130607671</v>
       </c>
       <c r="AS7">
-        <v>30.57142857142857</v>
+        <v>32.92307692307692</v>
       </c>
       <c r="AT7">
         <v>35.66666666666666</v>
       </c>
       <c r="AU7">
-        <v>38.90909090909091</v>
+        <v>42.8</v>
       </c>
       <c r="AV7">
         <v>47.55555555555556</v>
@@ -1550,10 +1550,10 @@
         <v>85.59999999999999</v>
       </c>
       <c r="AX7">
-        <v>44.03557119209293</v>
+        <v>45.31915548219896</v>
       </c>
       <c r="AY7">
-        <v>12.9697782913547</v>
+        <v>12.11965099556505</v>
       </c>
     </row>
     <row r="8">
@@ -1608,55 +1608,55 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S8">
-        <v>167.5</v>
+        <v>172.5</v>
       </c>
       <c r="T8">
-        <v>232.75</v>
+        <v>241</v>
       </c>
       <c r="U8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V8">
-        <v>159.4782608695652</v>
+        <v>162.9782608695652</v>
       </c>
       <c r="W8">
-        <v>95.16132247234688</v>
+        <v>97.87236339696825</v>
       </c>
       <c r="X8">
         <v>89</v>
       </c>
       <c r="Y8">
-        <v>266.5</v>
+        <v>269.25</v>
       </c>
       <c r="Z8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AA8">
-        <v>356.5</v>
+        <v>358</v>
       </c>
       <c r="AB8">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AC8">
-        <v>305.4782608695652</v>
+        <v>308.5</v>
       </c>
       <c r="AD8">
-        <v>78.2232529027398</v>
+        <v>77.58114031988272</v>
       </c>
       <c r="AE8">
         <v>5</v>
       </c>
       <c r="AF8">
+        <v>7</v>
+      </c>
+      <c r="AG8">
         <v>8</v>
-      </c>
-      <c r="AG8">
-        <v>8.5</v>
       </c>
       <c r="AH8">
         <v>11</v>
@@ -1665,10 +1665,10 @@
         <v>16</v>
       </c>
       <c r="AJ8">
-        <v>9.021739130434783</v>
+        <v>8.934782608695652</v>
       </c>
       <c r="AK8">
-        <v>2.165272684236664</v>
+        <v>2.388883271535919</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1768,64 +1768,64 @@
         <v>6</v>
       </c>
       <c r="R9">
-        <v>119.25</v>
+        <v>114.75</v>
       </c>
       <c r="S9">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="T9">
-        <v>220.5</v>
+        <v>203</v>
       </c>
       <c r="U9">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="V9">
-        <v>164.6086956521739</v>
+        <v>160.0652173913043</v>
       </c>
       <c r="W9">
-        <v>75.04531320353341</v>
+        <v>74.59740900293851</v>
       </c>
       <c r="X9">
         <v>115</v>
       </c>
       <c r="Y9">
-        <v>238.75</v>
+        <v>242</v>
       </c>
       <c r="Z9">
-        <v>271.5</v>
+        <v>272</v>
       </c>
       <c r="AA9">
-        <v>300</v>
+        <v>310.75</v>
       </c>
       <c r="AB9">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AC9">
-        <v>260.0869565217391</v>
+        <v>260.8695652173913</v>
       </c>
       <c r="AD9">
-        <v>62.57682428182232</v>
+        <v>64.33371630133065</v>
       </c>
       <c r="AE9">
         <v>4</v>
       </c>
       <c r="AF9">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="AG9">
         <v>8</v>
       </c>
       <c r="AH9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI9">
         <v>13</v>
       </c>
       <c r="AJ9">
-        <v>7.978260869565218</v>
+        <v>8.478260869565217</v>
       </c>
       <c r="AK9">
-        <v>2.21599368666151</v>
+        <v>2.188242627567027</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1904,10 +1904,10 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="L10">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="M10">
         <v>13</v>
@@ -1916,31 +1916,31 @@
         <v>16</v>
       </c>
       <c r="O10">
-        <v>10.97826086956522</v>
+        <v>10.8695652173913</v>
       </c>
       <c r="P10">
-        <v>2.824410502386354</v>
+        <v>2.918208702095432</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S10">
         <v>2.5</v>
       </c>
       <c r="T10">
-        <v>6.75</v>
+        <v>5</v>
       </c>
       <c r="U10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V10">
-        <v>4.043478260869565</v>
+        <v>4</v>
       </c>
       <c r="W10">
-        <v>3.782747512584121</v>
+        <v>3.590109871423003</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1949,19 +1949,19 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA10">
-        <v>10.75</v>
+        <v>14.75</v>
       </c>
       <c r="AB10">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AC10">
-        <v>5.782608695652174</v>
+        <v>9.065217391304348</v>
       </c>
       <c r="AD10">
-        <v>7.497890202445132</v>
+        <v>9.87342600432099</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
         <v>1</v>
@@ -1979,10 +1979,10 @@
         <v>2</v>
       </c>
       <c r="AJ10">
-        <v>0.5434782608695652</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="AK10">
-        <v>0.6898154902783927</v>
+        <v>0.7575704874652001</v>
       </c>
       <c r="AL10">
         <v>0.2631578947368421</v>
@@ -1991,7 +1991,7 @@
         <v>0.4736842105263158</v>
       </c>
       <c r="AN10">
-        <v>0.5789473684210527</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="AO10">
         <v>0.6842105263157895</v>
@@ -2000,10 +2000,10 @@
         <v>0.8421052631578947</v>
       </c>
       <c r="AQ10">
-        <v>0.5818895063746322</v>
+        <v>0.5753514220333442</v>
       </c>
       <c r="AR10">
-        <v>0.1497856271453722</v>
+        <v>0.1518949108608131</v>
       </c>
       <c r="AS10">
         <v>25.17647058823529</v>
@@ -2012,7 +2012,7 @@
         <v>30.57142857142857</v>
       </c>
       <c r="AU10">
-        <v>35.66666666666666</v>
+        <v>34.01709401709402</v>
       </c>
       <c r="AV10">
         <v>42.8</v>
@@ -2021,10 +2021,10 @@
         <v>71.33333333333333</v>
       </c>
       <c r="AX10">
-        <v>37.97683421295953</v>
+        <v>38.48648591391558</v>
       </c>
       <c r="AY10">
-        <v>11.27872437091862</v>
+        <v>11.59673322854252</v>
       </c>
     </row>
     <row r="11">
@@ -2070,34 +2070,34 @@
         <v>22</v>
       </c>
       <c r="N11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11">
-        <v>17.1304347826087</v>
+        <v>17.47826086956522</v>
       </c>
       <c r="P11">
-        <v>6.344231660517989</v>
+        <v>6.130938410806412</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="S11">
         <v>2</v>
       </c>
       <c r="T11">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="U11">
         <v>14</v>
       </c>
       <c r="V11">
-        <v>3.326086956521739</v>
+        <v>2.847826086956522</v>
       </c>
       <c r="W11">
-        <v>3.64572411844699</v>
+        <v>3.05481326073641</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -2148,28 +2148,28 @@
         <v>0.631578947368421</v>
       </c>
       <c r="AN11">
-        <v>0.8947368421052632</v>
+        <v>0.9473684210526316</v>
       </c>
       <c r="AO11">
-        <v>1.157894736842105</v>
+        <v>1.197368421052632</v>
       </c>
       <c r="AP11">
-        <v>1.789473684210526</v>
+        <v>1.736842105263158</v>
       </c>
       <c r="AQ11">
-        <v>0.9073226544622426</v>
+        <v>0.9268551814318404</v>
       </c>
       <c r="AR11">
-        <v>0.3332751163582248</v>
+        <v>0.3255538831313163</v>
       </c>
       <c r="AS11">
-        <v>12.22857142857143</v>
+        <v>12.58823529411765</v>
       </c>
       <c r="AT11">
-        <v>18.60869565217391</v>
+        <v>18.02717391304348</v>
       </c>
       <c r="AU11">
-        <v>23.77777777777778</v>
+        <v>22.58888888888889</v>
       </c>
       <c r="AV11">
         <v>32.92307692307692</v>
@@ -2178,10 +2178,10 @@
         <v>53.5</v>
       </c>
       <c r="AX11">
-        <v>26.84480643108547</v>
+        <v>26.13507210829128</v>
       </c>
       <c r="AY11">
-        <v>10.65341514253792</v>
+        <v>10.33631751391379</v>
       </c>
     </row>
     <row r="12">
@@ -2230,52 +2230,52 @@
         <v>3</v>
       </c>
       <c r="O12">
-        <v>1.222222222222222</v>
+        <v>1.17037037037037</v>
       </c>
       <c r="P12">
-        <v>0.7179759516601719</v>
+        <v>0.7471456538822293</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S12">
         <v>18</v>
       </c>
       <c r="T12">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U12">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="V12">
-        <v>20.42222222222222</v>
+        <v>19.55555555555556</v>
       </c>
       <c r="W12">
-        <v>11.07927947589917</v>
+        <v>10.79905452743402</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z12">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AA12">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB12">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AC12">
-        <v>28.84814814814815</v>
+        <v>31.18148148148148</v>
       </c>
       <c r="AD12">
-        <v>14.32505981018338</v>
+        <v>15.34632506381706</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>2</v>
       </c>
       <c r="AI12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ12">
-        <v>1.840740740740741</v>
+        <v>1.803703703703704</v>
       </c>
       <c r="AK12">
-        <v>1.042145078077679</v>
+        <v>1.071073352994801</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AN12">
         <v>0.5</v>
@@ -2314,10 +2314,10 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>0.6129629629629629</v>
+        <v>0.582716049382716</v>
       </c>
       <c r="AR12">
-        <v>0.36227610508882</v>
+        <v>0.3741293481327984</v>
       </c>
       <c r="AS12">
         <v>24</v>
@@ -2326,19 +2326,19 @@
         <v>31.66666666666667</v>
       </c>
       <c r="AU12">
-        <v>46.75</v>
+        <v>47</v>
       </c>
       <c r="AV12">
-        <v>47.5</v>
+        <v>48.5</v>
       </c>
       <c r="AW12">
         <v>97</v>
       </c>
       <c r="AX12">
-        <v>43.72685185185185</v>
+        <v>45.53271604938271</v>
       </c>
       <c r="AY12">
-        <v>15.88765884579728</v>
+        <v>17.92176333461421</v>
       </c>
     </row>
     <row r="13">
@@ -2408,19 +2408,19 @@
         <v>95</v>
       </c>
       <c r="V13">
-        <v>32.35185185185185</v>
+        <v>31.99259259259259</v>
       </c>
       <c r="W13">
-        <v>21.23085834346495</v>
+        <v>21.60045996216045</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z13">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA13">
         <v>76</v>
@@ -2429,10 +2429,10 @@
         <v>95</v>
       </c>
       <c r="AC13">
-        <v>58.4074074074074</v>
+        <v>59.42962962962963</v>
       </c>
       <c r="AD13">
-        <v>21.40242709243008</v>
+        <v>21.06602851709675</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -2441,19 +2441,19 @@
         <v>2</v>
       </c>
       <c r="AG13">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AH13">
         <v>3</v>
       </c>
       <c r="AI13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ13">
-        <v>2.707407407407407</v>
+        <v>2.681481481481482</v>
       </c>
       <c r="AK13">
-        <v>1.261210230707625</v>
+        <v>1.24148760660385</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2553,22 +2553,22 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S14">
-        <v>37.5</v>
+        <v>35</v>
       </c>
       <c r="T14">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U14">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V14">
-        <v>37.1962962962963</v>
+        <v>35.96666666666667</v>
       </c>
       <c r="W14">
-        <v>17.9979962015908</v>
+        <v>18.27553466485305</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -2577,19 +2577,19 @@
         <v>40</v>
       </c>
       <c r="Z14">
-        <v>51.5</v>
+        <v>53</v>
       </c>
       <c r="AA14">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AB14">
         <v>95</v>
       </c>
       <c r="AC14">
-        <v>51.62222222222222</v>
+        <v>52.37407407407407</v>
       </c>
       <c r="AD14">
-        <v>17.49492402928868</v>
+        <v>18.2768078320534</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -2607,10 +2607,10 @@
         <v>5</v>
       </c>
       <c r="AJ14">
-        <v>2.322222222222222</v>
+        <v>2.388888888888889</v>
       </c>
       <c r="AK14">
-        <v>1.061258750874315</v>
+        <v>1.111224694731411</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2701,52 +2701,52 @@
         <v>3</v>
       </c>
       <c r="O15">
-        <v>1.659259259259259</v>
+        <v>1.688888888888889</v>
       </c>
       <c r="P15">
-        <v>0.56756131238434</v>
+        <v>0.54488724206714</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T15">
-        <v>26.75</v>
+        <v>24</v>
       </c>
       <c r="U15">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V15">
-        <v>19.55185185185185</v>
+        <v>17.01851851851852</v>
       </c>
       <c r="W15">
-        <v>10.55993235201276</v>
+        <v>10.51267731903505</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z15">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA15">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB15">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AC15">
         <v>31.83333333333333</v>
       </c>
       <c r="AD15">
-        <v>14.8706317193434</v>
+        <v>14.05161753643809</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>4</v>
       </c>
       <c r="AJ15">
-        <v>1.622222222222222</v>
+        <v>1.648148148148148</v>
       </c>
       <c r="AK15">
-        <v>0.9073566876439186</v>
+        <v>0.88265835815849</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -2785,10 +2785,10 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0.8475308641975309</v>
+        <v>0.8635802469135803</v>
       </c>
       <c r="AR15">
-        <v>0.264411299824888</v>
+        <v>0.249350127534657</v>
       </c>
       <c r="AS15">
         <v>24</v>
@@ -2803,13 +2803,13 @@
         <v>32.33333333333334</v>
       </c>
       <c r="AW15">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="AX15">
-        <v>34.06265432098765</v>
+        <v>33.50030864197531</v>
       </c>
       <c r="AY15">
-        <v>6.963390381782382</v>
+        <v>6.250896251922606</v>
       </c>
     </row>
     <row r="16">
@@ -2858,10 +2858,10 @@
         <v>7</v>
       </c>
       <c r="O16">
-        <v>3.925925925925926</v>
+        <v>3.840740740740741</v>
       </c>
       <c r="P16">
-        <v>1.350366215671038</v>
+        <v>1.344342201539324</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -2870,19 +2870,19 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="V16">
-        <v>3.111111111111111</v>
+        <v>2.596296296296296</v>
       </c>
       <c r="W16">
-        <v>5.245875231005908</v>
+        <v>4.287526776573825</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -2897,13 +2897,13 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC16">
-        <v>1.422222222222222</v>
+        <v>1.348148148148148</v>
       </c>
       <c r="AD16">
-        <v>4.317280340852534</v>
+        <v>4.193850194931197</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>2</v>
       </c>
       <c r="AJ16">
-        <v>0.137037037037037</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AK16">
-        <v>0.3755027837854114</v>
+        <v>0.371873584468269</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2942,10 +2942,10 @@
         <v>5</v>
       </c>
       <c r="AQ16">
-        <v>2.035802469135803</v>
+        <v>1.991975308641975</v>
       </c>
       <c r="AR16">
-        <v>0.7307731544163961</v>
+        <v>0.7165632093039176</v>
       </c>
       <c r="AS16">
         <v>11.83333333333333</v>
@@ -2957,16 +2957,16 @@
         <v>19</v>
       </c>
       <c r="AV16">
-        <v>21.83333333333333</v>
+        <v>23.4375</v>
       </c>
       <c r="AW16">
         <v>59</v>
       </c>
       <c r="AX16">
-        <v>19.04585537918871</v>
+        <v>19.44271604938272</v>
       </c>
       <c r="AY16">
-        <v>5.78614337239353</v>
+        <v>6.13467697654916</v>
       </c>
     </row>
     <row r="17">
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C17">
         <v>49</v>
@@ -2994,10 +2994,10 @@
         <v>97</v>
       </c>
       <c r="H17">
-        <v>91.92788461538461</v>
+        <v>91.88205128205128</v>
       </c>
       <c r="I17">
-        <v>10.34009088748746</v>
+        <v>10.46306394469415</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3015,52 +3015,52 @@
         <v>3</v>
       </c>
       <c r="O17">
-        <v>1.245192307692308</v>
+        <v>1.302564102564103</v>
       </c>
       <c r="P17">
-        <v>0.7036660120816551</v>
+        <v>0.6778860331666847</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>12.75</v>
+        <v>12</v>
       </c>
       <c r="S17">
         <v>21</v>
       </c>
       <c r="T17">
-        <v>30.25</v>
+        <v>30.5</v>
       </c>
       <c r="U17">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V17">
-        <v>21.82692307692308</v>
+        <v>21.8974358974359</v>
       </c>
       <c r="W17">
-        <v>11.73494908810151</v>
+        <v>11.53478573928801</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z17">
         <v>31</v>
       </c>
       <c r="AA17">
-        <v>41</v>
+        <v>41.5</v>
       </c>
       <c r="AB17">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AC17">
-        <v>31.19711538461538</v>
+        <v>32.73846153846154</v>
       </c>
       <c r="AD17">
-        <v>15.03762082072742</v>
+        <v>13.93313589869313</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -3072,16 +3072,16 @@
         <v>2</v>
       </c>
       <c r="AH17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ17">
-        <v>1.990384615384615</v>
+        <v>2.066666666666667</v>
       </c>
       <c r="AK17">
-        <v>0.9680419233514812</v>
+        <v>0.9085315367474069</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -3099,10 +3099,10 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.5769230769230769</v>
+        <v>0.6102564102564102</v>
       </c>
       <c r="AR17">
-        <v>0.3312520182323</v>
+        <v>0.3232277297833643</v>
       </c>
       <c r="AS17">
         <v>24.25</v>
@@ -3120,10 +3120,10 @@
         <v>97</v>
       </c>
       <c r="AX17">
-        <v>45.63501602564103</v>
+        <v>43.94145299145299</v>
       </c>
       <c r="AY17">
-        <v>17.34241118039616</v>
+        <v>16.17589361509207</v>
       </c>
     </row>
     <row r="18">
@@ -3184,19 +3184,19 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>33</v>
+        <v>34.5</v>
       </c>
       <c r="T18">
-        <v>49.25</v>
+        <v>53</v>
       </c>
       <c r="U18">
         <v>91</v>
       </c>
       <c r="V18">
-        <v>30.06785714285714</v>
+        <v>30.97857142857143</v>
       </c>
       <c r="W18">
-        <v>24.91675824158996</v>
+        <v>25.8538677616833</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -3205,19 +3205,19 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>56</v>
+        <v>58.5</v>
       </c>
       <c r="AA18">
-        <v>74.25</v>
+        <v>78.25</v>
       </c>
       <c r="AB18">
         <v>97</v>
       </c>
       <c r="AC18">
-        <v>46.31428571428572</v>
+        <v>47.88214285714286</v>
       </c>
       <c r="AD18">
-        <v>33.02385055654711</v>
+        <v>34.06703862738488</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>6</v>
       </c>
       <c r="AJ18">
-        <v>2.342857142857143</v>
+        <v>2.321428571428572</v>
       </c>
       <c r="AK18">
-        <v>1.715505625001318</v>
+        <v>1.717578762361573</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C19">
         <v>49</v>
@@ -3308,10 +3308,10 @@
         <v>97</v>
       </c>
       <c r="H19">
-        <v>91.92788461538461</v>
+        <v>91.88205128205128</v>
       </c>
       <c r="I19">
-        <v>10.34009088748746</v>
+        <v>10.46306394469415</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3338,43 +3338,43 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>27</v>
+        <v>29.5</v>
       </c>
       <c r="S19">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T19">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U19">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="V19">
-        <v>38.88461538461539</v>
+        <v>39.41538461538462</v>
       </c>
       <c r="W19">
-        <v>18.60850550544139</v>
+        <v>16.19299738020828</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>42.75</v>
+        <v>46</v>
       </c>
       <c r="Z19">
-        <v>56.5</v>
+        <v>58</v>
       </c>
       <c r="AA19">
-        <v>66.25</v>
+        <v>68</v>
       </c>
       <c r="AB19">
         <v>89</v>
       </c>
       <c r="AC19">
-        <v>53.27403846153846</v>
+        <v>56.31282051282052</v>
       </c>
       <c r="AD19">
-        <v>18.72137167851447</v>
+        <v>16.41377312470438</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>2</v>
       </c>
       <c r="AG19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH19">
         <v>3</v>
@@ -3392,10 +3392,10 @@
         <v>5</v>
       </c>
       <c r="AJ19">
-        <v>2.442307692307693</v>
+        <v>2.646153846153846</v>
       </c>
       <c r="AK19">
-        <v>0.9150055893488173</v>
+        <v>0.9540597340886773</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -3434,10 +3434,10 @@
         <v>97</v>
       </c>
       <c r="AX19">
-        <v>91.92788461538461</v>
+        <v>91.88205128205128</v>
       </c>
       <c r="AY19">
-        <v>10.34009088748746</v>
+        <v>10.46306394469415</v>
       </c>
     </row>
     <row r="20">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C20">
         <v>49</v>
@@ -3465,10 +3465,10 @@
         <v>97</v>
       </c>
       <c r="H20">
-        <v>91.92788461538461</v>
+        <v>91.88205128205128</v>
       </c>
       <c r="I20">
-        <v>10.34009088748746</v>
+        <v>10.46306394469415</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3486,52 +3486,52 @@
         <v>3</v>
       </c>
       <c r="O20">
-        <v>1.591346153846154</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="P20">
-        <v>0.6226964237253988</v>
+        <v>0.5713672033812025</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T20">
         <v>28</v>
       </c>
       <c r="U20">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="V20">
-        <v>20.19230769230769</v>
+        <v>20.32820512820513</v>
       </c>
       <c r="W20">
-        <v>10.81560593988599</v>
+        <v>10.6080583237935</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z20">
         <v>31</v>
       </c>
       <c r="AA20">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB20">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AC20">
-        <v>28.91826923076923</v>
+        <v>30.72307692307692</v>
       </c>
       <c r="AD20">
-        <v>13.83470581229221</v>
+        <v>12.88190734617726</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -3549,16 +3549,16 @@
         <v>4</v>
       </c>
       <c r="AJ20">
-        <v>1.831730769230769</v>
+        <v>1.856410256410256</v>
       </c>
       <c r="AK20">
-        <v>0.8600375705844464</v>
+        <v>0.8248070289139213</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AN20">
         <v>1</v>
@@ -3570,10 +3570,10 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.7596153846153846</v>
+        <v>0.7974358974358974</v>
       </c>
       <c r="AR20">
-        <v>0.3023675793142445</v>
+        <v>0.27984865564774</v>
       </c>
       <c r="AS20">
         <v>24.25</v>
@@ -3585,16 +3585,16 @@
         <v>31.66666666666667</v>
       </c>
       <c r="AV20">
-        <v>47.5</v>
+        <v>33.75</v>
       </c>
       <c r="AW20">
         <v>95</v>
       </c>
       <c r="AX20">
-        <v>38.02564102564103</v>
+        <v>36.32051282051282</v>
       </c>
       <c r="AY20">
-        <v>12.88181015489506</v>
+        <v>10.91202812023106</v>
       </c>
     </row>
     <row r="21">
@@ -3604,7 +3604,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C21">
         <v>49</v>
@@ -3622,31 +3622,31 @@
         <v>97</v>
       </c>
       <c r="H21">
-        <v>91.92788461538461</v>
+        <v>91.88205128205128</v>
       </c>
       <c r="I21">
-        <v>10.34009088748746</v>
+        <v>10.46306394469415</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>8</v>
       </c>
       <c r="O21">
-        <v>4.216346153846154</v>
+        <v>4.528205128205128</v>
       </c>
       <c r="P21">
-        <v>1.726833441496639</v>
+        <v>1.530775141888943</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -3661,34 +3661,34 @@
         <v>4</v>
       </c>
       <c r="U21">
+        <v>57</v>
+      </c>
+      <c r="V21">
+        <v>3.061538461538461</v>
+      </c>
+      <c r="W21">
+        <v>4.783596077781731</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
         <v>21</v>
       </c>
-      <c r="V21">
-        <v>3.177884615384615</v>
-      </c>
-      <c r="W21">
-        <v>3.512859928250906</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>26</v>
-      </c>
       <c r="AC21">
-        <v>2.418269230769231</v>
+        <v>2.358974358974359</v>
       </c>
       <c r="AD21">
-        <v>4.622257942559145</v>
+        <v>4.326180069551487</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -3706,52 +3706,52 @@
         <v>2</v>
       </c>
       <c r="AJ21">
-        <v>0.2644230769230769</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="AK21">
-        <v>0.4937127935922568</v>
+        <v>0.4607226908156447</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AN21">
         <v>2</v>
       </c>
       <c r="AO21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AP21">
         <v>4</v>
       </c>
       <c r="AQ21">
-        <v>2.012820512820513</v>
+        <v>2.169230769230769</v>
       </c>
       <c r="AR21">
-        <v>0.8083011042240419</v>
+        <v>0.7423679882485569</v>
       </c>
       <c r="AS21">
         <v>10.55555555555556</v>
       </c>
       <c r="AT21">
-        <v>14.26428571428572</v>
+        <v>13.85714285714286</v>
       </c>
       <c r="AU21">
-        <v>17.33333333333333</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="AV21">
-        <v>19.63333333333333</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="AW21">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AX21">
-        <v>20.93875534188034</v>
+        <v>18.39567358567358</v>
       </c>
       <c r="AY21">
-        <v>13.58581228733469</v>
+        <v>9.173086009202533</v>
       </c>
     </row>
   </sheetData>

--- a/data/outputs/full_results/summary_results_all_wm.xlsx
+++ b/data/outputs/full_results/summary_results_all_wm.xlsx
@@ -666,67 +666,67 @@
         <v>2.123710179741161</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R2">
-        <v>2.25</v>
+        <v>38.25</v>
       </c>
       <c r="S2">
-        <v>12.5</v>
+        <v>59</v>
       </c>
       <c r="T2">
-        <v>21.5</v>
+        <v>65.5</v>
       </c>
       <c r="U2">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="V2">
-        <v>13.95652173913044</v>
+        <v>55.82608695652174</v>
       </c>
       <c r="W2">
-        <v>14.12634500457941</v>
+        <v>25.09475761794446</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2">
-        <v>20</v>
+        <v>95.75</v>
       </c>
       <c r="Z2">
-        <v>34</v>
+        <v>124.5</v>
       </c>
       <c r="AA2">
-        <v>51</v>
+        <v>154.75</v>
       </c>
       <c r="AB2">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="AC2">
-        <v>37.28260869565217</v>
+        <v>126.7173913043478</v>
       </c>
       <c r="AD2">
-        <v>26.56870593886162</v>
+        <v>43.6754001665714</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>6.25</v>
       </c>
       <c r="AG2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AH2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AI2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AJ2">
-        <v>2.173913043478261</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="AK2">
-        <v>1.387313115759892</v>
+        <v>3.133117476376037</v>
       </c>
       <c r="AL2">
         <v>0.3157894736842105</v>
@@ -1137,67 +1137,67 @@
         <v>1.856832272165831</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R5">
+        <v>26.25</v>
+      </c>
+      <c r="S5">
+        <v>40</v>
+      </c>
+      <c r="T5">
+        <v>54</v>
+      </c>
+      <c r="U5">
+        <v>90</v>
+      </c>
+      <c r="V5">
+        <v>41.91304347826087</v>
+      </c>
+      <c r="W5">
+        <v>19.66025442014254</v>
+      </c>
+      <c r="X5">
+        <v>36</v>
+      </c>
+      <c r="Y5">
+        <v>77.25</v>
+      </c>
+      <c r="Z5">
+        <v>105</v>
+      </c>
+      <c r="AA5">
+        <v>135</v>
+      </c>
+      <c r="AB5">
+        <v>174</v>
+      </c>
+      <c r="AC5">
+        <v>105.6304347826087</v>
+      </c>
+      <c r="AD5">
+        <v>38.93262481983868</v>
+      </c>
+      <c r="AE5">
         <v>2</v>
       </c>
-      <c r="S5">
-        <v>4</v>
-      </c>
-      <c r="T5">
-        <v>8.5</v>
-      </c>
-      <c r="U5">
-        <v>21</v>
-      </c>
-      <c r="V5">
-        <v>5.739130434782608</v>
-      </c>
-      <c r="W5">
-        <v>5.421909391466752</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>13</v>
-      </c>
-      <c r="Z5">
-        <v>21.5</v>
-      </c>
-      <c r="AA5">
-        <v>29</v>
-      </c>
-      <c r="AB5">
-        <v>45</v>
-      </c>
-      <c r="AC5">
-        <v>21.8695652173913</v>
-      </c>
-      <c r="AD5">
-        <v>12.71850566982733</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
       <c r="AF5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AG5">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="AH5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AI5">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AJ5">
-        <v>1.521739130434783</v>
+        <v>8.108695652173912</v>
       </c>
       <c r="AK5">
-        <v>0.9126062905469662</v>
+        <v>3.07121590738236</v>
       </c>
       <c r="AL5">
         <v>0.4736842105263158</v>
@@ -1294,67 +1294,67 @@
         <v>4.403117033821219</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T6">
+        <v>31</v>
+      </c>
+      <c r="U6">
+        <v>65</v>
+      </c>
+      <c r="V6">
+        <v>26.10869565217391</v>
+      </c>
+      <c r="W6">
+        <v>11.41972613189722</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>8</v>
+      </c>
+      <c r="Z6">
+        <v>9</v>
+      </c>
+      <c r="AA6">
+        <v>18.75</v>
+      </c>
+      <c r="AB6">
+        <v>43</v>
+      </c>
+      <c r="AC6">
+        <v>13.8695652173913</v>
+      </c>
+      <c r="AD6">
+        <v>11.34628416051739</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
         <v>1</v>
       </c>
-      <c r="U6">
-        <v>8</v>
-      </c>
-      <c r="V6">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="W6">
-        <v>1.954556178540915</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>19</v>
-      </c>
-      <c r="AC6">
-        <v>1.043478260869565</v>
-      </c>
-      <c r="AD6">
-        <v>3.626792410437327</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ6">
-        <v>0.108695652173913</v>
+        <v>1.521739130434783</v>
       </c>
       <c r="AK6">
-        <v>0.3787852437326</v>
+        <v>1.206263845005775</v>
       </c>
       <c r="AL6">
         <v>1</v>
@@ -1451,67 +1451,67 @@
         <v>2.289653265735816</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>21.25</v>
       </c>
       <c r="S7">
+        <v>30.5</v>
+      </c>
+      <c r="T7">
+        <v>45.75</v>
+      </c>
+      <c r="U7">
+        <v>108</v>
+      </c>
+      <c r="V7">
+        <v>34.39130434782609</v>
+      </c>
+      <c r="W7">
+        <v>19.09680399190697</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>27</v>
+      </c>
+      <c r="Z7">
+        <v>51.5</v>
+      </c>
+      <c r="AA7">
+        <v>73.25</v>
+      </c>
+      <c r="AB7">
+        <v>174</v>
+      </c>
+      <c r="AC7">
+        <v>53.3695652173913</v>
+      </c>
+      <c r="AD7">
+        <v>37.40847123054834</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
         <v>3</v>
       </c>
-      <c r="T7">
-        <v>5.75</v>
-      </c>
-      <c r="U7">
-        <v>18</v>
-      </c>
-      <c r="V7">
-        <v>4.673913043478261</v>
-      </c>
-      <c r="W7">
-        <v>4.315627148070072</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>9</v>
-      </c>
-      <c r="AA7">
-        <v>15.5</v>
-      </c>
-      <c r="AB7">
-        <v>48</v>
-      </c>
-      <c r="AC7">
-        <v>9.521739130434783</v>
-      </c>
-      <c r="AD7">
-        <v>11.79404582440702</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
       <c r="AG7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>6.75</v>
       </c>
       <c r="AI7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AJ7">
-        <v>0.7173913043478261</v>
+        <v>4.434782608695652</v>
       </c>
       <c r="AK7">
-        <v>0.7792601470700232</v>
+        <v>2.535544420286574</v>
       </c>
       <c r="AL7">
         <v>0.2105263157894737</v>
@@ -1922,67 +1922,67 @@
         <v>2.918208702095432</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R10">
+        <v>16.25</v>
+      </c>
+      <c r="S10">
+        <v>23</v>
+      </c>
+      <c r="T10">
+        <v>32.75</v>
+      </c>
+      <c r="U10">
+        <v>49</v>
+      </c>
+      <c r="V10">
+        <v>25.26086956521739</v>
+      </c>
+      <c r="W10">
+        <v>10.84524428823517</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>20</v>
+      </c>
+      <c r="Z10">
+        <v>37</v>
+      </c>
+      <c r="AA10">
+        <v>65.75</v>
+      </c>
+      <c r="AB10">
+        <v>141</v>
+      </c>
+      <c r="AC10">
+        <v>44.93478260869565</v>
+      </c>
+      <c r="AD10">
+        <v>33.15244396817227</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
         <v>2</v>
       </c>
-      <c r="S10">
-        <v>2.5</v>
-      </c>
-      <c r="T10">
-        <v>5</v>
-      </c>
-      <c r="U10">
-        <v>15</v>
-      </c>
-      <c r="V10">
+      <c r="AG10">
+        <v>3.5</v>
+      </c>
+      <c r="AH10">
+        <v>6</v>
+      </c>
+      <c r="AI10">
+        <v>10</v>
+      </c>
+      <c r="AJ10">
         <v>4</v>
       </c>
-      <c r="W10">
-        <v>3.590109871423003</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>9</v>
-      </c>
-      <c r="AA10">
-        <v>14.75</v>
-      </c>
-      <c r="AB10">
-        <v>44</v>
-      </c>
-      <c r="AC10">
-        <v>9.065217391304348</v>
-      </c>
-      <c r="AD10">
-        <v>9.87342600432099</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>1</v>
-      </c>
-      <c r="AH10">
-        <v>1</v>
-      </c>
-      <c r="AI10">
-        <v>2</v>
-      </c>
-      <c r="AJ10">
-        <v>0.7826086956521739</v>
-      </c>
       <c r="AK10">
-        <v>0.7575704874652001</v>
+        <v>2.538591035287969</v>
       </c>
       <c r="AL10">
         <v>0.2631578947368421</v>
@@ -2079,67 +2079,67 @@
         <v>6.130938410806412</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R11">
-        <v>0.25</v>
+        <v>22.25</v>
       </c>
       <c r="S11">
+        <v>29</v>
+      </c>
+      <c r="T11">
+        <v>38</v>
+      </c>
+      <c r="U11">
+        <v>112</v>
+      </c>
+      <c r="V11">
+        <v>33.91304347826087</v>
+      </c>
+      <c r="W11">
+        <v>20.72339106415906</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>8</v>
+      </c>
+      <c r="Z11">
+        <v>10</v>
+      </c>
+      <c r="AA11">
+        <v>19</v>
+      </c>
+      <c r="AB11">
+        <v>35</v>
+      </c>
+      <c r="AC11">
+        <v>12.52173913043478</v>
+      </c>
+      <c r="AD11">
+        <v>9.910127548085528</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
         <v>2</v>
       </c>
-      <c r="T11">
+      <c r="AI11">
         <v>4</v>
       </c>
-      <c r="U11">
-        <v>14</v>
-      </c>
-      <c r="V11">
-        <v>2.847826086956522</v>
-      </c>
-      <c r="W11">
-        <v>3.05481326073641</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>19</v>
-      </c>
-      <c r="AC11">
-        <v>0.7826086956521739</v>
-      </c>
-      <c r="AD11">
-        <v>3.258582128460583</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>2</v>
-      </c>
       <c r="AJ11">
-        <v>0.08695652173913043</v>
+        <v>1.347826086956522</v>
       </c>
       <c r="AK11">
-        <v>0.3544063553807966</v>
+        <v>1.058665644507228</v>
       </c>
       <c r="AL11">
         <v>0.3684210526315789</v>
@@ -2239,43 +2239,43 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T12">
-        <v>26</v>
+        <v>27.75</v>
       </c>
       <c r="U12">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="V12">
-        <v>19.55555555555556</v>
+        <v>20.84074074074074</v>
       </c>
       <c r="W12">
-        <v>10.79905452743402</v>
+        <v>10.98565334310682</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z12">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA12">
-        <v>42</v>
+        <v>44.75</v>
       </c>
       <c r="AB12">
         <v>82</v>
       </c>
       <c r="AC12">
-        <v>31.18148148148148</v>
+        <v>34.0925925925926</v>
       </c>
       <c r="AD12">
-        <v>15.34632506381706</v>
+        <v>16.07587552584996</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>2</v>
       </c>
       <c r="AH12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI12">
         <v>5</v>
       </c>
       <c r="AJ12">
-        <v>1.803703703703704</v>
+        <v>2.192592592592593</v>
       </c>
       <c r="AK12">
-        <v>1.071073352994801</v>
+        <v>1.090658518696798</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -2710,43 +2710,43 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S15">
         <v>16</v>
       </c>
       <c r="T15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U15">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="V15">
-        <v>17.01851851851852</v>
+        <v>18.54074074074074</v>
       </c>
       <c r="W15">
-        <v>10.51267731903505</v>
+        <v>11.2869059003087</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z15">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AA15">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AB15">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AC15">
-        <v>31.83333333333333</v>
+        <v>35.62592592592593</v>
       </c>
       <c r="AD15">
-        <v>14.05161753643809</v>
+        <v>16.17023960143222</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>2</v>
       </c>
       <c r="AH15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ15">
-        <v>1.648148148148148</v>
+        <v>2.240740740740741</v>
       </c>
       <c r="AK15">
-        <v>0.88265835815849</v>
+        <v>1.054908604106553</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -2867,22 +2867,22 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U16">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="V16">
-        <v>2.596296296296296</v>
+        <v>7.018518518518518</v>
       </c>
       <c r="W16">
-        <v>4.287526776573825</v>
+        <v>6.563078944519698</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -2891,19 +2891,19 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB16">
         <v>34</v>
       </c>
       <c r="AC16">
-        <v>1.348148148148148</v>
+        <v>7.022222222222222</v>
       </c>
       <c r="AD16">
-        <v>4.193850194931197</v>
+        <v>8.471659876651998</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -2912,19 +2912,19 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ16">
-        <v>0.1333333333333333</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="AK16">
-        <v>0.371873584468269</v>
+        <v>0.7813836282524065</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -3024,49 +3024,49 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S17">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="T17">
-        <v>30.5</v>
+        <v>32</v>
       </c>
       <c r="U17">
         <v>57</v>
       </c>
       <c r="V17">
-        <v>21.8974358974359</v>
+        <v>23.61538461538462</v>
       </c>
       <c r="W17">
-        <v>11.53478573928801</v>
+        <v>11.60833193619993</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z17">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AA17">
-        <v>41.5</v>
+        <v>46.5</v>
       </c>
       <c r="AB17">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AC17">
-        <v>32.73846153846154</v>
+        <v>35.92307692307692</v>
       </c>
       <c r="AD17">
-        <v>13.93313589869313</v>
+        <v>14.22750460871335</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG17">
         <v>2</v>
@@ -3075,13 +3075,13 @@
         <v>3</v>
       </c>
       <c r="AI17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ17">
-        <v>2.066666666666667</v>
+        <v>2.425641025641025</v>
       </c>
       <c r="AK17">
-        <v>0.9085315367474069</v>
+        <v>0.9677047849863823</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -3495,64 +3495,64 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="S20">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T20">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="U20">
         <v>57</v>
       </c>
       <c r="V20">
-        <v>20.32820512820513</v>
+        <v>22.82051282051282</v>
       </c>
       <c r="W20">
-        <v>10.6080583237935</v>
+        <v>10.94708875971046</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z20">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AA20">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AB20">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="AC20">
-        <v>30.72307692307692</v>
+        <v>34.97948717948718</v>
       </c>
       <c r="AD20">
-        <v>12.88190734617726</v>
+        <v>14.86986816071692</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG20">
         <v>2</v>
       </c>
       <c r="AH20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ20">
-        <v>1.856410256410256</v>
+        <v>2.394871794871795</v>
       </c>
       <c r="AK20">
-        <v>0.8248070289139213</v>
+        <v>1.080747335442632</v>
       </c>
       <c r="AL20">
         <v>0</v>
@@ -3652,22 +3652,22 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T21">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="U21">
         <v>57</v>
       </c>
       <c r="V21">
-        <v>3.061538461538461</v>
+        <v>10.55384615384615</v>
       </c>
       <c r="W21">
-        <v>4.783596077781731</v>
+        <v>7.494391241408613</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -3676,19 +3676,19 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AB21">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AC21">
-        <v>2.358974358974359</v>
+        <v>9.353846153846154</v>
       </c>
       <c r="AD21">
-        <v>4.326180069551487</v>
+        <v>8.630616986278456</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -3697,19 +3697,19 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AI21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ21">
-        <v>0.2564102564102564</v>
+        <v>0.9692307692307692</v>
       </c>
       <c r="AK21">
-        <v>0.4607226908156447</v>
+        <v>0.8728888659183657</v>
       </c>
       <c r="AL21">
         <v>0</v>

--- a/data/outputs/full_results/summary_results_all_wm.xlsx
+++ b/data/outputs/full_results/summary_results_all_wm.xlsx
@@ -660,58 +660,58 @@
         <v>14</v>
       </c>
       <c r="O2">
-        <v>9.608695652173912</v>
+        <v>9.478260869565217</v>
       </c>
       <c r="P2">
-        <v>2.123710179741161</v>
+        <v>2.073527648287469</v>
       </c>
       <c r="Q2">
         <v>6</v>
       </c>
       <c r="R2">
-        <v>38.25</v>
+        <v>33.5</v>
       </c>
       <c r="S2">
-        <v>59</v>
+        <v>53.5</v>
       </c>
       <c r="T2">
-        <v>65.5</v>
+        <v>65.75</v>
       </c>
       <c r="U2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="V2">
-        <v>55.82608695652174</v>
+        <v>54.93478260869565</v>
       </c>
       <c r="W2">
-        <v>25.09475761794446</v>
+        <v>24.96611229817378</v>
       </c>
       <c r="X2">
         <v>52</v>
       </c>
       <c r="Y2">
-        <v>95.75</v>
+        <v>97.25</v>
       </c>
       <c r="Z2">
-        <v>124.5</v>
+        <v>128.5</v>
       </c>
       <c r="AA2">
         <v>154.75</v>
       </c>
       <c r="AB2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AC2">
-        <v>126.7173913043478</v>
+        <v>129.2826086956522</v>
       </c>
       <c r="AD2">
-        <v>43.6754001665714</v>
+        <v>43.77399686951566</v>
       </c>
       <c r="AE2">
         <v>3</v>
       </c>
       <c r="AF2">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="AG2">
         <v>9</v>
@@ -720,13 +720,13 @@
         <v>11</v>
       </c>
       <c r="AI2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ2">
-        <v>8.695652173913043</v>
+        <v>8.869565217391305</v>
       </c>
       <c r="AK2">
-        <v>3.133117476376037</v>
+        <v>3.159526656898494</v>
       </c>
       <c r="AL2">
         <v>0.3157894736842105</v>
@@ -744,10 +744,10 @@
         <v>0.7368421052631579</v>
       </c>
       <c r="AQ2">
-        <v>0.5077639751552795</v>
+        <v>0.5008989865969271</v>
       </c>
       <c r="AR2">
-        <v>0.1080383721469593</v>
+        <v>0.105439596677146</v>
       </c>
       <c r="AS2">
         <v>28.53333333333333</v>
@@ -765,10 +765,10 @@
         <v>61.14285714285715</v>
       </c>
       <c r="AX2">
-        <v>41.73200784722524</v>
+        <v>42.21806164849643</v>
       </c>
       <c r="AY2">
-        <v>8.516735997592548</v>
+        <v>8.578303307222772</v>
       </c>
     </row>
     <row r="3">
@@ -1128,13 +1128,13 @@
         <v>15</v>
       </c>
       <c r="N5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O5">
-        <v>14.41304347826087</v>
+        <v>14.39130434782609</v>
       </c>
       <c r="P5">
-        <v>1.856832272165831</v>
+        <v>1.819380369119177</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1146,22 +1146,22 @@
         <v>40</v>
       </c>
       <c r="T5">
-        <v>54</v>
+        <v>53.75</v>
       </c>
       <c r="U5">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="V5">
-        <v>41.91304347826087</v>
+        <v>41.78260869565217</v>
       </c>
       <c r="W5">
-        <v>19.66025442014254</v>
+        <v>19.95652279161796</v>
       </c>
       <c r="X5">
         <v>36</v>
       </c>
       <c r="Y5">
-        <v>77.25</v>
+        <v>81.75</v>
       </c>
       <c r="Z5">
         <v>105</v>
@@ -1170,13 +1170,13 @@
         <v>135</v>
       </c>
       <c r="AB5">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="AC5">
-        <v>105.6304347826087</v>
+        <v>106.1086956521739</v>
       </c>
       <c r="AD5">
-        <v>38.93262481983868</v>
+        <v>39.39443178976754</v>
       </c>
       <c r="AE5">
         <v>2</v>
@@ -1194,10 +1194,10 @@
         <v>15</v>
       </c>
       <c r="AJ5">
-        <v>8.108695652173912</v>
+        <v>8.195652173913043</v>
       </c>
       <c r="AK5">
-        <v>3.07121590738236</v>
+        <v>3.074045942094275</v>
       </c>
       <c r="AL5">
         <v>0.4736842105263158</v>
@@ -1212,16 +1212,16 @@
         <v>0.7894736842105263</v>
       </c>
       <c r="AP5">
-        <v>0.9473684210526315</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="AQ5">
-        <v>0.762258908139915</v>
+        <v>0.7611147433801896</v>
       </c>
       <c r="AR5">
-        <v>0.08961497932235953</v>
+        <v>0.08751033657951186</v>
       </c>
       <c r="AS5">
-        <v>22.52631578947368</v>
+        <v>23.77777777777778</v>
       </c>
       <c r="AT5">
         <v>26.75</v>
@@ -1236,10 +1236,10 @@
         <v>42.8</v>
       </c>
       <c r="AX5">
-        <v>28.02903827376166</v>
+        <v>28.05624396915957</v>
       </c>
       <c r="AY5">
-        <v>3.81998761520793</v>
+        <v>3.784215627775039</v>
       </c>
     </row>
     <row r="6">
@@ -1276,43 +1276,43 @@
         <v>19</v>
       </c>
       <c r="K6">
-        <v>24.25</v>
+        <v>24</v>
       </c>
       <c r="L6">
         <v>27</v>
       </c>
       <c r="M6">
-        <v>30.75</v>
+        <v>30.5</v>
       </c>
       <c r="N6">
         <v>36</v>
       </c>
       <c r="O6">
-        <v>27.34782608695652</v>
+        <v>27.15217391304348</v>
       </c>
       <c r="P6">
-        <v>4.403117033821219</v>
+        <v>4.50169050372239</v>
       </c>
       <c r="Q6">
         <v>7</v>
       </c>
       <c r="R6">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="S6">
         <v>25</v>
       </c>
       <c r="T6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U6">
         <v>65</v>
       </c>
       <c r="V6">
-        <v>26.10869565217391</v>
+        <v>25.8695652173913</v>
       </c>
       <c r="W6">
-        <v>11.41972613189722</v>
+        <v>11.24595472090036</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1321,19 +1321,19 @@
         <v>8</v>
       </c>
       <c r="Z6">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AA6">
-        <v>18.75</v>
+        <v>23.5</v>
       </c>
       <c r="AB6">
         <v>43</v>
       </c>
       <c r="AC6">
-        <v>13.8695652173913</v>
+        <v>16.28260869565218</v>
       </c>
       <c r="AD6">
-        <v>11.34628416051739</v>
+        <v>11.61160921660016</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6">
         <v>2</v>
@@ -1351,16 +1351,16 @@
         <v>5</v>
       </c>
       <c r="AJ6">
-        <v>1.521739130434783</v>
+        <v>1.804347826086957</v>
       </c>
       <c r="AK6">
-        <v>1.206263845005775</v>
+        <v>1.25820975494534</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
-        <v>1.315789473684211</v>
+        <v>1.263157894736842</v>
       </c>
       <c r="AN6">
         <v>1.421052631578947</v>
@@ -1372,16 +1372,16 @@
         <v>1.894736842105263</v>
       </c>
       <c r="AQ6">
-        <v>1.448757763975155</v>
+        <v>1.438460281137627</v>
       </c>
       <c r="AR6">
-        <v>0.2310219063668679</v>
+        <v>0.2366442513354118</v>
       </c>
       <c r="AS6">
         <v>11.56756756756757</v>
       </c>
       <c r="AT6">
-        <v>13.48286290322581</v>
+        <v>13.375</v>
       </c>
       <c r="AU6">
         <v>15.28571428571429</v>
@@ -1393,10 +1393,10 @@
         <v>21.4</v>
       </c>
       <c r="AX6">
-        <v>15.40019840762877</v>
+        <v>15.53341553010698</v>
       </c>
       <c r="AY6">
-        <v>2.454338157577931</v>
+        <v>2.557282365008493</v>
       </c>
     </row>
     <row r="7">
@@ -1445,16 +1445,16 @@
         <v>12</v>
       </c>
       <c r="O7">
-        <v>8.956521739130435</v>
+        <v>8.891304347826088</v>
       </c>
       <c r="P7">
-        <v>2.289653265735816</v>
+        <v>2.253178109738087</v>
       </c>
       <c r="Q7">
         <v>10</v>
       </c>
       <c r="R7">
-        <v>21.25</v>
+        <v>21</v>
       </c>
       <c r="S7">
         <v>30.5</v>
@@ -1466,10 +1466,10 @@
         <v>108</v>
       </c>
       <c r="V7">
-        <v>34.39130434782609</v>
+        <v>34.5</v>
       </c>
       <c r="W7">
-        <v>19.09680399190697</v>
+        <v>19.11689189056515</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1481,16 +1481,16 @@
         <v>51.5</v>
       </c>
       <c r="AA7">
-        <v>73.25</v>
+        <v>75.5</v>
       </c>
       <c r="AB7">
         <v>174</v>
       </c>
       <c r="AC7">
-        <v>53.3695652173913</v>
+        <v>54.71739130434783</v>
       </c>
       <c r="AD7">
-        <v>37.40847123054834</v>
+        <v>37.82454408536474</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>3</v>
       </c>
       <c r="AG7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH7">
         <v>6.75</v>
@@ -1508,10 +1508,10 @@
         <v>11</v>
       </c>
       <c r="AJ7">
-        <v>4.434782608695652</v>
+        <v>4.565217391304348</v>
       </c>
       <c r="AK7">
-        <v>2.535544420286574</v>
+        <v>2.613232769434513</v>
       </c>
       <c r="AL7">
         <v>0.2105263157894737</v>
@@ -1529,10 +1529,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="AQ7">
-        <v>0.473847662634848</v>
+        <v>0.4704151683556718</v>
       </c>
       <c r="AR7">
-        <v>0.1184007130607671</v>
+        <v>0.1165200850931687</v>
       </c>
       <c r="AS7">
         <v>32.92307692307692</v>
@@ -1550,10 +1550,10 @@
         <v>85.59999999999999</v>
       </c>
       <c r="AX7">
-        <v>45.31915548219896</v>
+        <v>45.55266786353743</v>
       </c>
       <c r="AY7">
-        <v>12.11965099556505</v>
+        <v>12.01243848599598</v>
       </c>
     </row>
     <row r="8">
@@ -1937,10 +1937,10 @@
         <v>49</v>
       </c>
       <c r="V10">
-        <v>25.26086956521739</v>
+        <v>25.17391304347826</v>
       </c>
       <c r="W10">
-        <v>10.84524428823517</v>
+        <v>10.85317024411882</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1958,10 +1958,10 @@
         <v>141</v>
       </c>
       <c r="AC10">
-        <v>44.93478260869565</v>
+        <v>44.89130434782609</v>
       </c>
       <c r="AD10">
-        <v>33.15244396817227</v>
+        <v>33.05028375125768</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -2070,13 +2070,13 @@
         <v>22</v>
       </c>
       <c r="N11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11">
-        <v>17.47826086956522</v>
+        <v>17.3695652173913</v>
       </c>
       <c r="P11">
-        <v>6.130938410806412</v>
+        <v>5.94552565904133</v>
       </c>
       <c r="Q11">
         <v>11</v>
@@ -2094,10 +2094,10 @@
         <v>112</v>
       </c>
       <c r="V11">
-        <v>33.91304347826087</v>
+        <v>33.93478260869565</v>
       </c>
       <c r="W11">
-        <v>20.72339106415906</v>
+        <v>20.80213896471337</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -2112,13 +2112,13 @@
         <v>19</v>
       </c>
       <c r="AB11">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="AC11">
-        <v>12.52173913043478</v>
+        <v>13.23913043478261</v>
       </c>
       <c r="AD11">
-        <v>9.910127548085528</v>
+        <v>10.89991800704879</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -2133,13 +2133,13 @@
         <v>2</v>
       </c>
       <c r="AI11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ11">
-        <v>1.347826086956522</v>
+        <v>1.434782608695652</v>
       </c>
       <c r="AK11">
-        <v>1.058665644507228</v>
+        <v>1.186070522786969</v>
       </c>
       <c r="AL11">
         <v>0.3684210526315789</v>
@@ -2151,22 +2151,22 @@
         <v>0.9473684210526316</v>
       </c>
       <c r="AO11">
-        <v>1.197368421052632</v>
+        <v>1.157894736842105</v>
       </c>
       <c r="AP11">
-        <v>1.736842105263158</v>
+        <v>1.684210526315789</v>
       </c>
       <c r="AQ11">
-        <v>0.9268551814318404</v>
+        <v>0.9211343576332135</v>
       </c>
       <c r="AR11">
-        <v>0.3255538831313163</v>
+        <v>0.3160126604494409</v>
       </c>
       <c r="AS11">
-        <v>12.58823529411765</v>
+        <v>12.96969696969697</v>
       </c>
       <c r="AT11">
-        <v>18.02717391304348</v>
+        <v>18.60869565217391</v>
       </c>
       <c r="AU11">
         <v>22.58888888888889</v>
@@ -2178,10 +2178,10 @@
         <v>53.5</v>
       </c>
       <c r="AX11">
-        <v>26.13507210829128</v>
+        <v>26.19468100350008</v>
       </c>
       <c r="AY11">
-        <v>10.33631751391379</v>
+        <v>10.27406184135486</v>
       </c>
     </row>
     <row r="12">
@@ -2230,52 +2230,52 @@
         <v>3</v>
       </c>
       <c r="O12">
-        <v>1.17037037037037</v>
+        <v>1.077777777777778</v>
       </c>
       <c r="P12">
-        <v>0.7471456538822293</v>
+        <v>0.7451620084486273</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T12">
-        <v>27.75</v>
+        <v>28.75</v>
       </c>
       <c r="U12">
         <v>74</v>
       </c>
       <c r="V12">
-        <v>20.84074074074074</v>
+        <v>21.84814814814815</v>
       </c>
       <c r="W12">
-        <v>10.98565334310682</v>
+        <v>11.36759466438732</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>22</v>
+        <v>23.25</v>
       </c>
       <c r="Z12">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA12">
-        <v>44.75</v>
+        <v>46</v>
       </c>
       <c r="AB12">
         <v>82</v>
       </c>
       <c r="AC12">
-        <v>34.0925925925926</v>
+        <v>35.52592592592593</v>
       </c>
       <c r="AD12">
-        <v>16.07587552584996</v>
+        <v>16.09443766835809</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>2.192592592592593</v>
       </c>
       <c r="AK12">
-        <v>1.090658518696798</v>
+        <v>1.070012307863037</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -2314,19 +2314,19 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>0.582716049382716</v>
+        <v>0.5358024691358024</v>
       </c>
       <c r="AR12">
-        <v>0.3741293481327984</v>
+        <v>0.3738593751361511</v>
       </c>
       <c r="AS12">
-        <v>24</v>
+        <v>24.25</v>
       </c>
       <c r="AT12">
         <v>31.66666666666667</v>
       </c>
       <c r="AU12">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="AV12">
         <v>48.5</v>
@@ -2335,10 +2335,10 @@
         <v>97</v>
       </c>
       <c r="AX12">
-        <v>45.53271604938271</v>
+        <v>47.90246913580247</v>
       </c>
       <c r="AY12">
-        <v>17.92176333461421</v>
+        <v>19.15548415972048</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         <v>95</v>
       </c>
       <c r="V13">
-        <v>31.99259259259259</v>
+        <v>31.90370370370371</v>
       </c>
       <c r="W13">
-        <v>21.60045996216045</v>
+        <v>21.68269797410013</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -2429,10 +2429,10 @@
         <v>95</v>
       </c>
       <c r="AC13">
-        <v>59.42962962962963</v>
+        <v>59.24814814814815</v>
       </c>
       <c r="AD13">
-        <v>21.06602851709675</v>
+        <v>21.36515368765059</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="AG13">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AH13">
         <v>3</v>
@@ -2450,10 +2450,10 @@
         <v>7</v>
       </c>
       <c r="AJ13">
-        <v>2.681481481481482</v>
+        <v>2.662962962962963</v>
       </c>
       <c r="AK13">
-        <v>1.24148760660385</v>
+        <v>1.244063418980206</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2701,10 +2701,10 @@
         <v>3</v>
       </c>
       <c r="O15">
-        <v>1.688888888888889</v>
+        <v>1.67037037037037</v>
       </c>
       <c r="P15">
-        <v>0.54488724206714</v>
+        <v>0.5708630489707315</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2716,16 +2716,16 @@
         <v>16</v>
       </c>
       <c r="T15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U15">
         <v>74</v>
       </c>
       <c r="V15">
-        <v>18.54074074074074</v>
+        <v>18.54444444444444</v>
       </c>
       <c r="W15">
-        <v>11.2869059003087</v>
+        <v>11.32831545742129</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -2737,16 +2737,16 @@
         <v>34</v>
       </c>
       <c r="AA15">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB15">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC15">
-        <v>35.62592592592593</v>
+        <v>36.06666666666667</v>
       </c>
       <c r="AD15">
-        <v>16.17023960143222</v>
+        <v>16.26486166270907</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>5</v>
       </c>
       <c r="AJ15">
-        <v>2.240740740740741</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="AK15">
-        <v>1.054908604106553</v>
+        <v>1.088409136572718</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -2785,13 +2785,13 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0.8635802469135803</v>
+        <v>0.8493827160493828</v>
       </c>
       <c r="AR15">
-        <v>0.249350127534657</v>
+        <v>0.2672191257420775</v>
       </c>
       <c r="AS15">
-        <v>24</v>
+        <v>24.25</v>
       </c>
       <c r="AT15">
         <v>31.66666666666667</v>
@@ -2806,10 +2806,10 @@
         <v>61</v>
       </c>
       <c r="AX15">
-        <v>33.50030864197531</v>
+        <v>33.88302469135802</v>
       </c>
       <c r="AY15">
-        <v>6.250896251922606</v>
+        <v>6.463459304643556</v>
       </c>
     </row>
     <row r="16">
@@ -2858,10 +2858,10 @@
         <v>7</v>
       </c>
       <c r="O16">
-        <v>3.840740740740741</v>
+        <v>3.785185185185185</v>
       </c>
       <c r="P16">
-        <v>1.344342201539324</v>
+        <v>1.323986237336714</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -2870,19 +2870,19 @@
         <v>3</v>
       </c>
       <c r="S16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U16">
         <v>42</v>
       </c>
       <c r="V16">
-        <v>7.018518518518518</v>
+        <v>7.159259259259259</v>
       </c>
       <c r="W16">
-        <v>6.563078944519698</v>
+        <v>6.608587364827454</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>8</v>
       </c>
       <c r="AA16">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AB16">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AC16">
-        <v>7.022222222222222</v>
+        <v>7.892592592592592</v>
       </c>
       <c r="AD16">
-        <v>8.471659876651998</v>
+        <v>8.984473427541825</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>3</v>
       </c>
       <c r="AJ16">
-        <v>0.6851851851851852</v>
+        <v>0.774074074074074</v>
       </c>
       <c r="AK16">
-        <v>0.7813836282524065</v>
+        <v>0.8297859233004039</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2939,16 +2939,16 @@
         <v>2.5</v>
       </c>
       <c r="AP16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ16">
-        <v>1.991975308641975</v>
+        <v>1.957407407407407</v>
       </c>
       <c r="AR16">
-        <v>0.7165632093039176</v>
+        <v>0.6931963174436352</v>
       </c>
       <c r="AS16">
-        <v>11.83333333333333</v>
+        <v>11.875</v>
       </c>
       <c r="AT16">
         <v>15.83333333333333</v>
@@ -2957,16 +2957,16 @@
         <v>19</v>
       </c>
       <c r="AV16">
-        <v>23.4375</v>
+        <v>23.75</v>
       </c>
       <c r="AW16">
         <v>59</v>
       </c>
       <c r="AX16">
-        <v>19.44271604938272</v>
+        <v>19.64593915343915</v>
       </c>
       <c r="AY16">
-        <v>6.13467697654916</v>
+        <v>6.079455385210363</v>
       </c>
     </row>
     <row r="17">
@@ -3015,16 +3015,16 @@
         <v>3</v>
       </c>
       <c r="O17">
-        <v>1.302564102564103</v>
+        <v>1.287179487179487</v>
       </c>
       <c r="P17">
-        <v>0.6778860331666847</v>
+        <v>0.6731903911003474</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="S17">
         <v>24</v>
@@ -3036,10 +3036,10 @@
         <v>57</v>
       </c>
       <c r="V17">
-        <v>23.61538461538462</v>
+        <v>23.81538461538462</v>
       </c>
       <c r="W17">
-        <v>11.60833193619993</v>
+        <v>11.5587593076745</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>26</v>
       </c>
       <c r="Z17">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA17">
         <v>46.5</v>
@@ -3057,10 +3057,10 @@
         <v>78</v>
       </c>
       <c r="AC17">
-        <v>35.92307692307692</v>
+        <v>36.31794871794872</v>
       </c>
       <c r="AD17">
-        <v>14.22750460871335</v>
+        <v>14.1170159771975</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>5</v>
       </c>
       <c r="AJ17">
-        <v>2.425641025641025</v>
+        <v>2.435897435897436</v>
       </c>
       <c r="AK17">
-        <v>0.9677047849863823</v>
+        <v>0.9684420423682468</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -3099,10 +3099,10 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.6102564102564102</v>
+        <v>0.6025641025641025</v>
       </c>
       <c r="AR17">
-        <v>0.3232277297833643</v>
+        <v>0.3197744601253966</v>
       </c>
       <c r="AS17">
         <v>24.25</v>
@@ -3120,10 +3120,10 @@
         <v>97</v>
       </c>
       <c r="AX17">
-        <v>43.94145299145299</v>
+        <v>44.18504273504274</v>
       </c>
       <c r="AY17">
-        <v>16.17589361509207</v>
+        <v>16.10794095059001</v>
       </c>
     </row>
     <row r="18">
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="T18">
         <v>53</v>
@@ -3193,10 +3193,10 @@
         <v>91</v>
       </c>
       <c r="V18">
-        <v>30.97857142857143</v>
+        <v>30.45714285714286</v>
       </c>
       <c r="W18">
-        <v>25.8538677616833</v>
+        <v>26.28282114134587</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -3214,10 +3214,10 @@
         <v>97</v>
       </c>
       <c r="AC18">
-        <v>47.88214285714286</v>
+        <v>46.90357142857143</v>
       </c>
       <c r="AD18">
-        <v>34.06703862738488</v>
+        <v>35.00764875095368</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AH18">
         <v>4</v>
@@ -3235,10 +3235,10 @@
         <v>6</v>
       </c>
       <c r="AJ18">
-        <v>2.321428571428572</v>
+        <v>2.242857142857143</v>
       </c>
       <c r="AK18">
-        <v>1.717578762361573</v>
+        <v>1.773445822980102</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -3486,19 +3486,19 @@
         <v>3</v>
       </c>
       <c r="O20">
-        <v>1.666666666666667</v>
+        <v>1.641025641025641</v>
       </c>
       <c r="P20">
-        <v>0.5713672033812025</v>
+        <v>0.5871115512114823</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="S20">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T20">
         <v>31</v>
@@ -3507,31 +3507,31 @@
         <v>57</v>
       </c>
       <c r="V20">
-        <v>22.82051282051282</v>
+        <v>23.03589743589744</v>
       </c>
       <c r="W20">
-        <v>10.94708875971046</v>
+        <v>10.70425985103587</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z20">
         <v>35</v>
       </c>
       <c r="AA20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB20">
         <v>78</v>
       </c>
       <c r="AC20">
-        <v>34.97948717948718</v>
+        <v>35.67692307692307</v>
       </c>
       <c r="AD20">
-        <v>14.86986816071692</v>
+        <v>15.21743542779817</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -3549,16 +3549,16 @@
         <v>6</v>
       </c>
       <c r="AJ20">
-        <v>2.394871794871795</v>
+        <v>2.384615384615385</v>
       </c>
       <c r="AK20">
-        <v>1.080747335442632</v>
+        <v>1.084458737513946</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="AN20">
         <v>1</v>
@@ -3570,10 +3570,10 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.7974358974358974</v>
+        <v>0.7837606837606838</v>
       </c>
       <c r="AR20">
-        <v>0.27984865564774</v>
+        <v>0.2893560210584588</v>
       </c>
       <c r="AS20">
         <v>24.25</v>
@@ -3585,16 +3585,16 @@
         <v>31.66666666666667</v>
       </c>
       <c r="AV20">
-        <v>33.75</v>
+        <v>37.25</v>
       </c>
       <c r="AW20">
         <v>95</v>
       </c>
       <c r="AX20">
-        <v>36.32051282051282</v>
+        <v>36.77435897435898</v>
       </c>
       <c r="AY20">
-        <v>10.91202812023106</v>
+        <v>11.01836489330516</v>
       </c>
     </row>
     <row r="21">
@@ -3643,10 +3643,10 @@
         <v>8</v>
       </c>
       <c r="O21">
-        <v>4.528205128205128</v>
+        <v>4.492307692307692</v>
       </c>
       <c r="P21">
-        <v>1.530775141888943</v>
+        <v>1.503841235482809</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>57</v>
       </c>
       <c r="V21">
-        <v>10.55384615384615</v>
+        <v>10.64615384615385</v>
       </c>
       <c r="W21">
-        <v>7.494391241408613</v>
+        <v>7.508271938467769</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -3679,16 +3679,16 @@
         <v>8</v>
       </c>
       <c r="AA21">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AB21">
         <v>35</v>
       </c>
       <c r="AC21">
-        <v>9.353846153846154</v>
+        <v>9.805128205128206</v>
       </c>
       <c r="AD21">
-        <v>8.630616986278456</v>
+        <v>8.817331477873292</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -3700,16 +3700,16 @@
         <v>1</v>
       </c>
       <c r="AH21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AI21">
         <v>3</v>
       </c>
       <c r="AJ21">
-        <v>0.9692307692307692</v>
+        <v>1.015384615384615</v>
       </c>
       <c r="AK21">
-        <v>0.8728888659183657</v>
+        <v>0.8994667554123335</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -3721,16 +3721,16 @@
         <v>2</v>
       </c>
       <c r="AO21">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AP21">
         <v>4</v>
       </c>
       <c r="AQ21">
-        <v>2.169230769230769</v>
+        <v>2.152136752136752</v>
       </c>
       <c r="AR21">
-        <v>0.7423679882485569</v>
+        <v>0.7309550184070249</v>
       </c>
       <c r="AS21">
         <v>10.55555555555556</v>
@@ -3748,10 +3748,10 @@
         <v>94</v>
       </c>
       <c r="AX21">
-        <v>18.39567358567358</v>
+        <v>18.47757224257224</v>
       </c>
       <c r="AY21">
-        <v>9.173086009202533</v>
+        <v>9.143566879842918</v>
       </c>
     </row>
   </sheetData>
